--- a/SampleFiles/DoPLibrary/SourceData/BaustoffindustrieTemplatesAndSheets.xlsx
+++ b/SampleFiles/DoPLibrary/SourceData/BaustoffindustrieTemplatesAndSheets.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\GitHub\buildingSMART\ProductData\SampleFiles\DoPLibrary\SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04045F46-79FB-4FE6-AAE7-7864379601EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F51717F-FD97-4240-BD6B-D721CD58F800}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="396" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Templates" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="309">
   <si>
     <t>SystemName</t>
   </si>
@@ -942,39 +942,6 @@
     <t>cc086535-96a2-4f90-8553-2066b2c80955</t>
   </si>
   <si>
-    <t>d691840a-1193-4732-8345-c791b09e0ca5</t>
-  </si>
-  <si>
-    <t>fa29f8e3-dbb9-4e0e-bf63-f0597280ba72</t>
-  </si>
-  <si>
-    <t>cad39fb3-cf33-4ca5-82b9-b08f42dfc749</t>
-  </si>
-  <si>
-    <t>69513daa-c0bc-4ebf-b85c-a1594d04a589</t>
-  </si>
-  <si>
-    <t>31ed031c-5077-4929-92cd-61a100762cb9</t>
-  </si>
-  <si>
-    <t>2102a391-a33f-4f22-b779-7bb34589bfcd</t>
-  </si>
-  <si>
-    <t>e35eb2d5-605c-4283-b7de-8902ae1c58ed</t>
-  </si>
-  <si>
-    <t>1c4cd69d-5adf-40ec-af3b-c55b787b9ad3</t>
-  </si>
-  <si>
-    <t>3492e49c-09f3-49a1-9879-64980d1ff061</t>
-  </si>
-  <si>
-    <t>5d2ac6f9-774b-4898-8054-9a6c3f5eaf12</t>
-  </si>
-  <si>
-    <t>84b6b2c8-c6d9-429d-9b3d-fd412c0264e4</t>
-  </si>
-  <si>
     <t>458ec927-a12c-4c45-bc9a-e2b3c57bc9d4</t>
   </si>
   <si>
@@ -1003,12 +970,6 @@
   </si>
   <si>
     <t>Aufgaben Dritter3</t>
-  </si>
-  <si>
-    <t>System4</t>
-  </si>
-  <si>
-    <t>Ausgestelltes Dokument5</t>
   </si>
   <si>
     <t>VG-ORTH GmbH &amp; Co KG
@@ -1059,9 +1020,6 @@
     <t>ComplexGroupName</t>
   </si>
   <si>
-    <t>ComplexGroupDesciption</t>
-  </si>
-  <si>
     <t>Beschreibung der Druckfestigkeit</t>
   </si>
   <si>
@@ -1069,13 +1027,37 @@
   </si>
   <si>
     <t>a580d114-530b-4a66-9908-4fe566e34a95</t>
+  </si>
+  <si>
+    <t>AllowedValues</t>
+  </si>
+  <si>
+    <t>ComplexGroupDescription</t>
+  </si>
+  <si>
+    <t>System1</t>
+  </si>
+  <si>
+    <t>System3</t>
+  </si>
+  <si>
+    <t>Aufgaben Dritter1</t>
+  </si>
+  <si>
+    <t>Ausgestelltes Dokument2</t>
+  </si>
+  <si>
+    <t>Ausgestelltes Dokument3</t>
+  </si>
+  <si>
+    <t>Value1|Value2|Value3|NPD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1152,6 +1134,10 @@
     <font>
       <sz val="10"/>
       <color theme="0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1317,7 +1303,991 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{EAEE7FC7-4A81-9942-B117-D2B94E1E7A05}"/>
   </cellStyles>
-  <dxfs count="83">
+  <dxfs count="73">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Helvetica"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color theme="0"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color rgb="FF0432FF"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1351,29 +2321,12 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color auto="1"/>
-        <name val="Arial"/>
+        <name val="Calibri"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1392,1153 +2345,8 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Helvetica"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color theme="0"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF0432FF"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2573,27 +2381,7 @@
         <vertAlign val="baseline"/>
         <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -2650,97 +2438,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A43E1EF1-C73D-4FFE-8494-D98BFCE38C28}" name="Tabelle1" displayName="Tabelle1" ref="A1:M66" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
-  <autoFilter ref="A1:M66" xr:uid="{EA77667F-04C5-4BD2-8664-4020DFB6FBC2}"/>
-  <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{52CBB667-7F54-42E3-AA61-383E71E3B9F4}" name="Publisher" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{D419FC68-88B2-43DE-82D2-DC34F25E04E1}" name="DataTemplate" dataDxfId="79"/>
-    <tableColumn id="11" xr3:uid="{DD6A38D6-62C6-4BB6-A075-11C794A8B409}" name="ComplexGroupName" dataDxfId="78"/>
-    <tableColumn id="12" xr3:uid="{C4F88858-12CA-4D9A-BC04-8A937FEEA262}" name="ComplexGroupDesciption" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{09C4298E-AF58-4E87-8BD9-50BCB19759BB}" name="ComplexGroupGuid" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{45973D09-F8C9-427A-BE6D-012ECBE3818F}" name="SystemName" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{B5FE4866-9484-44FA-9AC6-C5D42708AEA5}" name="Definition" dataDxfId="76"/>
-    <tableColumn id="9" xr3:uid="{7D41BE2A-6B59-419D-8E4D-529F7C465C98}" name="InternalRemark" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{C08F0949-1E18-4C1D-82D1-8BB0B2131C50}" name="GlobalId" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{D4929CC7-CF5C-4AB0-88A8-73D6ABFE7333}" name="PrimaryMeasureType" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{5A6F5A6F-70A2-4BF2-BC72-7CC12E26411C}" name="SiPrefix" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{C1585F7B-732E-4D47-9745-430F06A61639}" name="SiUnit" dataDxfId="71"/>
-    <tableColumn id="10" xr3:uid="{02790CF5-92DC-4330-B908-E759A726EDFA}" name="TestStandard" dataDxfId="70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A43E1EF1-C73D-4FFE-8494-D98BFCE38C28}" name="Tabelle1" displayName="Tabelle1" ref="A1:N55" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+  <autoFilter ref="A1:N55" xr:uid="{EA77667F-04C5-4BD2-8664-4020DFB6FBC2}"/>
+  <tableColumns count="14">
+    <tableColumn id="1" xr3:uid="{52CBB667-7F54-42E3-AA61-383E71E3B9F4}" name="Publisher" dataDxfId="70"/>
+    <tableColumn id="2" xr3:uid="{D419FC68-88B2-43DE-82D2-DC34F25E04E1}" name="DataTemplate" dataDxfId="69"/>
+    <tableColumn id="11" xr3:uid="{DD6A38D6-62C6-4BB6-A075-11C794A8B409}" name="ComplexGroupName" dataDxfId="68"/>
+    <tableColumn id="12" xr3:uid="{C4F88858-12CA-4D9A-BC04-8A937FEEA262}" name="ComplexGroupDescription" dataDxfId="67"/>
+    <tableColumn id="13" xr3:uid="{09C4298E-AF58-4E87-8BD9-50BCB19759BB}" name="ComplexGroupGuid" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{45973D09-F8C9-427A-BE6D-012ECBE3818F}" name="SystemName" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{B5FE4866-9484-44FA-9AC6-C5D42708AEA5}" name="Definition" dataDxfId="64"/>
+    <tableColumn id="9" xr3:uid="{7D41BE2A-6B59-419D-8E4D-529F7C465C98}" name="InternalRemark" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{C08F0949-1E18-4C1D-82D1-8BB0B2131C50}" name="GlobalId" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{D4929CC7-CF5C-4AB0-88A8-73D6ABFE7333}" name="PrimaryMeasureType" dataDxfId="61"/>
+    <tableColumn id="7" xr3:uid="{5A6F5A6F-70A2-4BF2-BC72-7CC12E26411C}" name="SiPrefix" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{C1585F7B-732E-4D47-9745-430F06A61639}" name="SiUnit" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{02790CF5-92DC-4330-B908-E759A726EDFA}" name="TestStandard" dataDxfId="58"/>
+    <tableColumn id="14" xr3:uid="{065C5948-AE80-4944-B977-227E6F111F4B}" name="AllowedValues" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6491C3DA-0783-4137-ADA9-F87EAA7CB131}" name="Tabelle2" displayName="Tabelle2" ref="A1:BN6" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
-  <autoFilter ref="A1:BN6" xr:uid="{B9345D43-7C6A-4D65-BE8D-1DC35AF97F76}"/>
-  <tableColumns count="66">
-    <tableColumn id="1" xr3:uid="{882F8D88-920D-4F81-A04A-1E7586E255B0}" name="Name" dataDxfId="67"/>
-    <tableColumn id="2" xr3:uid="{CF609E5B-E563-45F5-8E8C-EA5659837A40}" name="Nr./Kennung" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{9F926368-6BA8-4263-B4C8-5F1317D6E5AE}" name="Eindeutiger Kenncode des Produkttyps" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{641ED005-4D53-4866-8044-ED77A4ACFA69}" name="Typen-, Chargen- oder Seriennummer oder ein anderes Kennzeichen" dataDxfId="64"/>
-    <tableColumn id="5" xr3:uid="{5CEABF04-D5BE-4C3D-AF9A-1881BC54AF54}" name="Verwendungszweck" dataDxfId="63"/>
-    <tableColumn id="6" xr3:uid="{6166D064-E61D-4196-BF4D-7A097324FDA1}" name="Eingetragender Handelsname/Marke und Kontaktanschrift" dataDxfId="62"/>
-    <tableColumn id="7" xr3:uid="{7C625ECD-0280-40A8-880E-740C2DD9EA71}" name="Bevollmächtigter" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{09677039-BAD4-404B-8CDA-AF7C0CC25FF7}" name="System" dataDxfId="60"/>
-    <tableColumn id="9" xr3:uid="{AF568394-FB4D-431F-AD94-227567A9CF13}" name="Notifizierende Stelle" dataDxfId="59"/>
-    <tableColumn id="10" xr3:uid="{67099EEA-6B1B-4274-A2ED-52760D6919E0}" name="Aufgaben Dritter" dataDxfId="58"/>
-    <tableColumn id="11" xr3:uid="{98A21DA9-2F62-44F1-B20A-33DA9E19D8AC}" name="System2" dataDxfId="57"/>
-    <tableColumn id="12" xr3:uid="{C0458652-36AE-4103-8DB8-AA667EB5329E}" name="Ausgestelltes Dokument" dataDxfId="56"/>
-    <tableColumn id="13" xr3:uid="{52B339FB-487F-4827-A6B5-6E3C4843D735}" name="Technische Bewertungsstelle" dataDxfId="55"/>
-    <tableColumn id="14" xr3:uid="{6E72FEEE-AD22-40C5-A8A0-300240445B4F}" name="Referenznummer des Europäischen Bewertungsdokuments" dataDxfId="54"/>
-    <tableColumn id="15" xr3:uid="{2163075A-A591-4597-9729-9D9CEF24A783}" name="Referenznummer der Europäischen Technischen Bewertung" dataDxfId="53"/>
-    <tableColumn id="16" xr3:uid="{3F0246F8-D97F-4513-AAA7-EC988A0CB606}" name="Aufgaben Dritter3" dataDxfId="52"/>
-    <tableColumn id="17" xr3:uid="{7D420F12-8ACF-49DE-977D-7D9D3004A914}" name="System4" dataDxfId="51"/>
-    <tableColumn id="18" xr3:uid="{2B21B83B-D702-43CA-80E7-996E5ACB570A}" name="Ausgestelltes Dokument5" dataDxfId="50"/>
-    <tableColumn id="19" xr3:uid="{DF4D2E31-8F21-44B5-809E-FA81B891F485}" name="Wesentliches Merkmal o. hEN 1: Brandverhalte" dataDxfId="49"/>
-    <tableColumn id="20" xr3:uid="{04E20642-6BD1-4E7B-8868-3AE21023859F}" name="Wesentliches Merkmal o. hEN 2: Feuerbeständigkeit" dataDxfId="48"/>
-    <tableColumn id="21" xr3:uid="{29BDB58E-A187-40B7-AAC0-A557829D7DA2}" name="Wesentliches Merkmal o. hEN 3: Verhalten bei einem Brand von außen" dataDxfId="47"/>
-    <tableColumn id="22" xr3:uid="{60B0B3A9-E318-4C4B-8D06-176F1D2E38BA}" name="Wesentliches Merkmal o. hEN 4: Geräuschabsorption" dataDxfId="46"/>
-    <tableColumn id="23" xr3:uid="{2998BB1A-4D32-4AD9-8D6B-AB5BCCEF25B7}" name="Wesentliches Merkmal o. hEN 5: Emission von gefährlichen Stoffen" dataDxfId="45"/>
-    <tableColumn id="24" xr3:uid="{406AD9EA-601B-47CA-82FB-5A6B49D05C3E}" name="Gesamtlochquerschnitt AL bezogen auf die Lagerfläche" dataDxfId="44" dataCellStyle="Standard 2"/>
-    <tableColumn id="25" xr3:uid="{4EAAD07E-BFDE-4D1B-9C75-10FBABB59B19}" name="Mittlere Druckfestigkeit" dataDxfId="43" dataCellStyle="Standard 2"/>
-    <tableColumn id="26" xr3:uid="{12F9939B-4377-4D21-B58D-B8DE094154C8}" name="Normierte Druckfestigkeit" dataDxfId="42" dataCellStyle="Standard 2"/>
-    <tableColumn id="27" xr3:uid="{5401E18A-CCBF-4D34-9C53-B35F5BDB1FAC}" name="Charakteristische Druckfestigkeit" dataDxfId="41" dataCellStyle="Standard 2"/>
-    <tableColumn id="28" xr3:uid="{A049B364-DE00-48B5-AC40-C67C7FC8FAB1}" name="Wesentliches Merkmal 2" dataDxfId="40"/>
-    <tableColumn id="29" xr3:uid="{6BD3CD70-D91D-43DB-AF52-54562072419B}" name="Wesentliches Merkmal 3" dataDxfId="39"/>
-    <tableColumn id="30" xr3:uid="{B1C8EC02-8F80-47B7-8589-3B0FB6CDC8E7}" name="Wesentliches Merkmal 4" dataDxfId="38"/>
-    <tableColumn id="31" xr3:uid="{25290FB3-DF00-405E-80A9-A3F7E8B393F7}" name="Wesentliches Merkmal 5" dataDxfId="37"/>
-    <tableColumn id="32" xr3:uid="{9DBE8400-5A81-4A93-9947-965B572839E1}" name="Wesentliches Merkmal 6" dataDxfId="36"/>
-    <tableColumn id="33" xr3:uid="{D445D4B4-32D1-4DCB-8060-A6C8A849FF5D}" name="Wesentliches Merkmal 7" dataDxfId="35"/>
-    <tableColumn id="34" xr3:uid="{0EF0D321-4DE0-4367-BDD9-3D111AF3C10B}" name="Wesentliches Merkmal 8" dataDxfId="34"/>
-    <tableColumn id="35" xr3:uid="{5ECE7318-8275-4657-B9BD-A89956537A20}" name="Wesentliches Merkmal 9" dataDxfId="33" dataCellStyle="Standard 2"/>
-    <tableColumn id="36" xr3:uid="{A62D713B-0ACA-4CB0-A3BA-5FD7FAFDFA29}" name="Wesentliches Merkmal 10" dataDxfId="32" dataCellStyle="Standard 2"/>
-    <tableColumn id="37" xr3:uid="{13879B7D-71F3-4756-9BD4-97557CA525DB}" name="Wesentliches Merkmal 11" dataDxfId="31" dataCellStyle="Standard 2"/>
-    <tableColumn id="38" xr3:uid="{F8D13BFC-7CDE-414F-B442-A365EDB211EA}" name="Leistung zu 9.101" dataDxfId="30"/>
-    <tableColumn id="39" xr3:uid="{56B96DB3-4770-45CF-A69B-FF92A270569B}" name="Leistung zu 9.102" dataDxfId="29"/>
-    <tableColumn id="40" xr3:uid="{B28396A7-780E-4580-8B26-02BE55CF9B93}" name="Leistung zu 9.103" dataDxfId="28"/>
-    <tableColumn id="41" xr3:uid="{2941B012-7521-4751-BD32-F534B5D820C4}" name="Leistung zu 9.104" dataDxfId="27"/>
-    <tableColumn id="42" xr3:uid="{9F0D459E-3AD1-48BF-A093-0BEAE0939A04}" name="Leistung zu 9.105" dataDxfId="26"/>
-    <tableColumn id="43" xr3:uid="{55F11C36-5FF7-4556-9645-12732E5EE391}" name="Leistung zu 9.106" dataDxfId="25"/>
-    <tableColumn id="44" xr3:uid="{3C77781B-5EA0-47E2-8F6E-F7BD324BE13D}" name="Leistung zu 9.107" dataDxfId="24"/>
-    <tableColumn id="45" xr3:uid="{C8FEB31C-E786-439C-9EF6-D7C6EDB36D4E}" name="Leistung zu 9.108" dataDxfId="23"/>
-    <tableColumn id="46" xr3:uid="{7DA426C6-F04F-462F-8E8F-5073B0845291}" name="Leistung zu 9.109" dataDxfId="22"/>
-    <tableColumn id="47" xr3:uid="{C45B615C-C96C-4883-98A9-2825C74413E1}" name="Leistung zu 9.110" dataDxfId="21"/>
-    <tableColumn id="48" xr3:uid="{754F38B9-CD4E-4F22-969B-A8CC370481F7}" name="Leistung zu 9.111" dataDxfId="20"/>
-    <tableColumn id="49" xr3:uid="{30314477-08EB-40C5-AA46-CC1099F7C0A1}" name="Einheit zu 9.101" dataDxfId="19"/>
-    <tableColumn id="50" xr3:uid="{107E685E-F0FF-4E95-B03D-F949F6C9D84B}" name="Einheit zu 9.102" dataDxfId="18"/>
-    <tableColumn id="51" xr3:uid="{C8770A51-46E9-40D6-A240-D1CBB3CE90CF}" name="Einheit zu 9.103" dataDxfId="17"/>
-    <tableColumn id="52" xr3:uid="{9B84D7E1-AF97-4133-A0BD-13832A104280}" name="Einheit zu 9.104" dataDxfId="16"/>
-    <tableColumn id="53" xr3:uid="{CF79208F-FFF0-475B-8D9A-6EE06C08472B}" name="Einheit zu 9.105" dataDxfId="15"/>
-    <tableColumn id="54" xr3:uid="{268DF039-644E-4D53-9DD5-8CF13401E82E}" name="Einheit zu 9.106" dataDxfId="14"/>
-    <tableColumn id="55" xr3:uid="{D525A2B5-B971-4C39-920C-F2AF32737549}" name="Einheit zu 9.107" dataDxfId="13"/>
-    <tableColumn id="56" xr3:uid="{30B4ABB4-7DC5-4D16-80F7-675E3703A6DD}" name="Einheit zu 9.108" dataDxfId="12"/>
-    <tableColumn id="57" xr3:uid="{8E4095B8-4506-428D-B73B-A1E2562F2553}" name="Einheit zu 9.109" dataDxfId="11" dataCellStyle="Standard 2"/>
-    <tableColumn id="58" xr3:uid="{135CE5BD-4918-444E-9ED7-651CCC8613EE}" name="Einheit zu 9.110" dataDxfId="10"/>
-    <tableColumn id="59" xr3:uid="{1E09F754-FA70-4282-9B94-570A8023FC79}" name="Einheit zu 9.111" dataDxfId="9"/>
-    <tableColumn id="60" xr3:uid="{1B428CD1-B942-4A1D-ACBE-1C037EE4EF4E}" name="Harmonisierte technische Spezifikation" dataDxfId="8"/>
-    <tableColumn id="61" xr3:uid="{79E50F33-F59A-4A05-8902-22640B19B8E2}" name="Name, Funktion" dataDxfId="7"/>
-    <tableColumn id="62" xr3:uid="{6B4AC729-A672-46C0-9393-64E19C5BBE95}" name="Ort und Datum" dataDxfId="6"/>
-    <tableColumn id="63" xr3:uid="{03A3A100-F48E-4BCD-BC7C-1A0F3A675C39}" name="Unterschrift" dataDxfId="5"/>
-    <tableColumn id="64" xr3:uid="{DE5DE9CF-2ECB-4520-90F1-D7BB0934C878}" name="Dokumentenreferenzierung/ProductDataSheet" dataDxfId="4"/>
-    <tableColumn id="65" xr3:uid="{DAA38489-BC36-4FC1-8105-47753E5BF89F}" name="Omniclass" dataDxfId="3"/>
-    <tableColumn id="66" xr3:uid="{7D636AEA-8665-43B5-B305-974C6190537C}" name="Uniclass" dataDxfId="2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{6491C3DA-0783-4137-ADA9-F87EAA7CB131}" name="Tabelle2" displayName="Tabelle2" ref="A1:BC6" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55">
+  <autoFilter ref="A1:BC6" xr:uid="{B9345D43-7C6A-4D65-BE8D-1DC35AF97F76}"/>
+  <tableColumns count="55">
+    <tableColumn id="1" xr3:uid="{882F8D88-920D-4F81-A04A-1E7586E255B0}" name="Name" dataDxfId="54"/>
+    <tableColumn id="2" xr3:uid="{CF609E5B-E563-45F5-8E8C-EA5659837A40}" name="Nr./Kennung" dataDxfId="53"/>
+    <tableColumn id="3" xr3:uid="{9F926368-6BA8-4263-B4C8-5F1317D6E5AE}" name="Eindeutiger Kenncode des Produkttyps" dataDxfId="52"/>
+    <tableColumn id="4" xr3:uid="{641ED005-4D53-4866-8044-ED77A4ACFA69}" name="Typen-, Chargen- oder Seriennummer oder ein anderes Kennzeichen" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{5CEABF04-D5BE-4C3D-AF9A-1881BC54AF54}" name="Verwendungszweck" dataDxfId="50"/>
+    <tableColumn id="6" xr3:uid="{6166D064-E61D-4196-BF4D-7A097324FDA1}" name="Eingetragender Handelsname/Marke und Kontaktanschrift" dataDxfId="49"/>
+    <tableColumn id="7" xr3:uid="{7C625ECD-0280-40A8-880E-740C2DD9EA71}" name="Bevollmächtigter" dataDxfId="48"/>
+    <tableColumn id="8" xr3:uid="{09677039-BAD4-404B-8CDA-AF7C0CC25FF7}" name="System1" dataDxfId="47"/>
+    <tableColumn id="9" xr3:uid="{AF568394-FB4D-431F-AD94-227567A9CF13}" name="Notifizierende Stelle" dataDxfId="46"/>
+    <tableColumn id="10" xr3:uid="{67099EEA-6B1B-4274-A2ED-52760D6919E0}" name="Aufgaben Dritter1" dataDxfId="45"/>
+    <tableColumn id="11" xr3:uid="{98A21DA9-2F62-44F1-B20A-33DA9E19D8AC}" name="System2" dataDxfId="44"/>
+    <tableColumn id="12" xr3:uid="{C0458652-36AE-4103-8DB8-AA667EB5329E}" name="Ausgestelltes Dokument2" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{52B339FB-487F-4827-A6B5-6E3C4843D735}" name="Technische Bewertungsstelle" dataDxfId="42"/>
+    <tableColumn id="14" xr3:uid="{6E72FEEE-AD22-40C5-A8A0-300240445B4F}" name="Referenznummer des Europäischen Bewertungsdokuments" dataDxfId="41"/>
+    <tableColumn id="15" xr3:uid="{2163075A-A591-4597-9729-9D9CEF24A783}" name="Referenznummer der Europäischen Technischen Bewertung" dataDxfId="40"/>
+    <tableColumn id="16" xr3:uid="{3F0246F8-D97F-4513-AAA7-EC988A0CB606}" name="Aufgaben Dritter3" dataDxfId="39"/>
+    <tableColumn id="17" xr3:uid="{02D5E1EC-BB8C-4FB4-8F27-3396C83A507C}" name="System3" dataDxfId="38"/>
+    <tableColumn id="18" xr3:uid="{2B21B83B-D702-43CA-80E7-996E5ACB570A}" name="Ausgestelltes Dokument3" dataDxfId="37"/>
+    <tableColumn id="19" xr3:uid="{DF4D2E31-8F21-44B5-809E-FA81B891F485}" name="Wesentliches Merkmal o. hEN 1: Brandverhalte" dataDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{04E20642-6BD1-4E7B-8868-3AE21023859F}" name="Wesentliches Merkmal o. hEN 2: Feuerbeständigkeit" dataDxfId="35"/>
+    <tableColumn id="21" xr3:uid="{29BDB58E-A187-40B7-AAC0-A557829D7DA2}" name="Wesentliches Merkmal o. hEN 3: Verhalten bei einem Brand von außen" dataDxfId="34"/>
+    <tableColumn id="22" xr3:uid="{60B0B3A9-E318-4C4B-8D06-176F1D2E38BA}" name="Wesentliches Merkmal o. hEN 4: Geräuschabsorption" dataDxfId="33"/>
+    <tableColumn id="23" xr3:uid="{2998BB1A-4D32-4AD9-8D6B-AB5BCCEF25B7}" name="Wesentliches Merkmal o. hEN 5: Emission von gefährlichen Stoffen" dataDxfId="32"/>
+    <tableColumn id="24" xr3:uid="{406AD9EA-601B-47CA-82FB-5A6B49D05C3E}" name="Gesamtlochquerschnitt AL bezogen auf die Lagerfläche" dataDxfId="31" dataCellStyle="Standard 2"/>
+    <tableColumn id="25" xr3:uid="{4EAAD07E-BFDE-4D1B-9C75-10FBABB59B19}" name="Mittlere Druckfestigkeit" dataDxfId="30" dataCellStyle="Standard 2"/>
+    <tableColumn id="26" xr3:uid="{12F9939B-4377-4D21-B58D-B8DE094154C8}" name="Normierte Druckfestigkeit" dataDxfId="29" dataCellStyle="Standard 2"/>
+    <tableColumn id="27" xr3:uid="{5401E18A-CCBF-4D34-9C53-B35F5BDB1FAC}" name="Charakteristische Druckfestigkeit" dataDxfId="28" dataCellStyle="Standard 2"/>
+    <tableColumn id="28" xr3:uid="{A049B364-DE00-48B5-AC40-C67C7FC8FAB1}" name="Wesentliches Merkmal 2" dataDxfId="27"/>
+    <tableColumn id="29" xr3:uid="{6BD3CD70-D91D-43DB-AF52-54562072419B}" name="Wesentliches Merkmal 3" dataDxfId="26"/>
+    <tableColumn id="30" xr3:uid="{B1C8EC02-8F80-47B7-8589-3B0FB6CDC8E7}" name="Wesentliches Merkmal 4" dataDxfId="25"/>
+    <tableColumn id="31" xr3:uid="{25290FB3-DF00-405E-80A9-A3F7E8B393F7}" name="Wesentliches Merkmal 5" dataDxfId="24"/>
+    <tableColumn id="32" xr3:uid="{9DBE8400-5A81-4A93-9947-965B572839E1}" name="Wesentliches Merkmal 6" dataDxfId="23"/>
+    <tableColumn id="33" xr3:uid="{D445D4B4-32D1-4DCB-8060-A6C8A849FF5D}" name="Wesentliches Merkmal 7" dataDxfId="22"/>
+    <tableColumn id="34" xr3:uid="{0EF0D321-4DE0-4367-BDD9-3D111AF3C10B}" name="Wesentliches Merkmal 8" dataDxfId="21"/>
+    <tableColumn id="35" xr3:uid="{5ECE7318-8275-4657-B9BD-A89956537A20}" name="Wesentliches Merkmal 9" dataDxfId="20" dataCellStyle="Standard 2"/>
+    <tableColumn id="36" xr3:uid="{A62D713B-0ACA-4CB0-A3BA-5FD7FAFDFA29}" name="Wesentliches Merkmal 10" dataDxfId="19" dataCellStyle="Standard 2"/>
+    <tableColumn id="37" xr3:uid="{13879B7D-71F3-4756-9BD4-97557CA525DB}" name="Wesentliches Merkmal 11" dataDxfId="18" dataCellStyle="Standard 2"/>
+    <tableColumn id="38" xr3:uid="{F8D13BFC-7CDE-414F-B442-A365EDB211EA}" name="Leistung zu 9.101" dataDxfId="17"/>
+    <tableColumn id="39" xr3:uid="{56B96DB3-4770-45CF-A69B-FF92A270569B}" name="Leistung zu 9.102" dataDxfId="16"/>
+    <tableColumn id="40" xr3:uid="{B28396A7-780E-4580-8B26-02BE55CF9B93}" name="Leistung zu 9.103" dataDxfId="15"/>
+    <tableColumn id="41" xr3:uid="{2941B012-7521-4751-BD32-F534B5D820C4}" name="Leistung zu 9.104" dataDxfId="14"/>
+    <tableColumn id="42" xr3:uid="{9F0D459E-3AD1-48BF-A093-0BEAE0939A04}" name="Leistung zu 9.105" dataDxfId="13"/>
+    <tableColumn id="43" xr3:uid="{55F11C36-5FF7-4556-9645-12732E5EE391}" name="Leistung zu 9.106" dataDxfId="12"/>
+    <tableColumn id="44" xr3:uid="{3C77781B-5EA0-47E2-8F6E-F7BD324BE13D}" name="Leistung zu 9.107" dataDxfId="11"/>
+    <tableColumn id="45" xr3:uid="{C8FEB31C-E786-439C-9EF6-D7C6EDB36D4E}" name="Leistung zu 9.108" dataDxfId="10"/>
+    <tableColumn id="46" xr3:uid="{7DA426C6-F04F-462F-8E8F-5073B0845291}" name="Leistung zu 9.109" dataDxfId="9"/>
+    <tableColumn id="47" xr3:uid="{C45B615C-C96C-4883-98A9-2825C74413E1}" name="Leistung zu 9.110" dataDxfId="8"/>
+    <tableColumn id="48" xr3:uid="{7A08FC86-461E-4D43-B179-673D163C4086}" name="Leistung zu 9.111" dataDxfId="0"/>
+    <tableColumn id="60" xr3:uid="{1B428CD1-B942-4A1D-ACBE-1C037EE4EF4E}" name="Harmonisierte technische Spezifikation" dataDxfId="7" dataCellStyle="Standard 2"/>
+    <tableColumn id="61" xr3:uid="{79E50F33-F59A-4A05-8902-22640B19B8E2}" name="Name, Funktion" dataDxfId="6"/>
+    <tableColumn id="62" xr3:uid="{6B4AC729-A672-46C0-9393-64E19C5BBE95}" name="Ort und Datum" dataDxfId="5"/>
+    <tableColumn id="63" xr3:uid="{03A3A100-F48E-4BCD-BC7C-1A0F3A675C39}" name="Unterschrift" dataDxfId="4"/>
+    <tableColumn id="64" xr3:uid="{DE5DE9CF-2ECB-4520-90F1-D7BB0934C878}" name="Dokumentenreferenzierung/ProductDataSheet" dataDxfId="3"/>
+    <tableColumn id="65" xr3:uid="{DAA38489-BC36-4FC1-8105-47753E5BF89F}" name="Omniclass" dataDxfId="2"/>
+    <tableColumn id="66" xr3:uid="{7D636AEA-8665-43B5-B305-974C6190537C}" name="Uniclass" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3009,29 +2787,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A07687-0D17-4D6E-8F6E-1C562F7CF42C}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H22" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D26" sqref="D26"/>
+      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="13" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" style="13" customWidth="1"/>
-    <col min="5" max="5" width="37.28515625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="39" style="13" customWidth="1"/>
-    <col min="7" max="7" width="24.5703125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="39.28515625" style="13" customWidth="1"/>
-    <col min="9" max="9" width="41.28515625" style="13" customWidth="1"/>
-    <col min="10" max="13" width="22.28515625" style="13" customWidth="1"/>
-    <col min="14" max="16384" width="11.5703125" style="13"/>
+    <col min="1" max="1" width="17.33203125" style="13" customWidth="1"/>
+    <col min="2" max="4" width="20.6640625" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.88671875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="39.33203125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="41.33203125" style="13" customWidth="1"/>
+    <col min="10" max="13" width="22.33203125" style="13" customWidth="1"/>
+    <col min="14" max="14" width="41.5546875" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="11.5546875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -3039,13 +2818,13 @@
         <v>215</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>310</v>
+        <v>297</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>0</v>
@@ -3069,10 +2848,13 @@
         <v>5</v>
       </c>
       <c r="M1" s="12" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+        <v>282</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>216</v>
       </c>
@@ -3083,7 +2865,7 @@
         <v>30</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H2" s="14" t="s">
         <v>9</v>
@@ -3095,7 +2877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>216</v>
       </c>
@@ -3106,7 +2888,7 @@
         <v>31</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H3" s="14" t="s">
         <v>10</v>
@@ -3118,7 +2900,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>216</v>
       </c>
@@ -3129,7 +2911,7 @@
         <v>32</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H4" s="14" t="s">
         <v>11</v>
@@ -3141,7 +2923,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>216</v>
       </c>
@@ -3152,7 +2934,7 @@
         <v>33</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H5" s="14" t="s">
         <v>12</v>
@@ -3163,8 +2945,11 @@
       <c r="J5" s="15" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="N5" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>216</v>
       </c>
@@ -3175,7 +2960,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H6" s="14" t="s">
         <v>13</v>
@@ -3187,7 +2972,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>216</v>
       </c>
@@ -3198,7 +2983,7 @@
         <v>226</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H7" s="14" t="s">
         <v>14</v>
@@ -3210,7 +2995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>216</v>
       </c>
@@ -3218,10 +3003,10 @@
         <v>224</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H8" s="14" t="s">
         <v>15</v>
@@ -3233,7 +3018,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>216</v>
       </c>
@@ -3244,7 +3029,7 @@
         <v>227</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H9" s="14" t="s">
         <v>16</v>
@@ -3256,7 +3041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>216</v>
       </c>
@@ -3264,10 +3049,10 @@
         <v>224</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H10" s="14" t="s">
         <v>17</v>
@@ -3279,7 +3064,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>216</v>
       </c>
@@ -3287,10 +3072,10 @@
         <v>224</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>36</v>
+        <v>284</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H11" s="14" t="s">
         <v>18</v>
@@ -3302,7 +3087,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>216</v>
       </c>
@@ -3310,10 +3095,10 @@
         <v>224</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="G12" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H12" s="14" t="s">
         <v>19</v>
@@ -3325,7 +3110,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>216</v>
       </c>
@@ -3336,7 +3121,7 @@
         <v>228</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H13" s="14" t="s">
         <v>20</v>
@@ -3348,7 +3133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>216</v>
       </c>
@@ -3359,7 +3144,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H14" s="14" t="s">
         <v>21</v>
@@ -3371,7 +3156,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>216</v>
       </c>
@@ -3382,7 +3167,7 @@
         <v>42</v>
       </c>
       <c r="G15" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H15" s="14" t="s">
         <v>22</v>
@@ -3394,7 +3179,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>216</v>
       </c>
@@ -3402,10 +3187,10 @@
         <v>224</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>38</v>
+        <v>285</v>
       </c>
       <c r="G16" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H16" s="14" t="s">
         <v>23</v>
@@ -3417,7 +3202,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>216</v>
       </c>
@@ -3425,10 +3210,10 @@
         <v>224</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>36</v>
+        <v>304</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H17" s="14" t="s">
         <v>24</v>
@@ -3440,7 +3225,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>216</v>
       </c>
@@ -3448,10 +3233,10 @@
         <v>224</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>39</v>
+        <v>307</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H18" s="14" t="s">
         <v>25</v>
@@ -3463,7 +3248,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>216</v>
       </c>
@@ -3474,7 +3259,7 @@
         <v>217</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H19" s="14" t="s">
         <v>204</v>
@@ -3486,7 +3271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>216</v>
       </c>
@@ -3497,7 +3282,7 @@
         <v>211</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H20" s="14" t="s">
         <v>205</v>
@@ -3509,7 +3294,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>216</v>
       </c>
@@ -3520,7 +3305,7 @@
         <v>212</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H21" s="14" t="s">
         <v>206</v>
@@ -3532,7 +3317,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>216</v>
       </c>
@@ -3543,7 +3328,7 @@
         <v>213</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H22" s="14" t="s">
         <v>207</v>
@@ -3555,7 +3340,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>216</v>
       </c>
@@ -3566,7 +3351,7 @@
         <v>209</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H23" s="14" t="s">
         <v>208</v>
@@ -3578,7 +3363,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>216</v>
       </c>
@@ -3589,16 +3374,16 @@
         <v>218</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F24" s="18" t="s">
         <v>219</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H24" s="14" t="s">
         <v>85</v>
@@ -3612,8 +3397,11 @@
       <c r="M24" s="13" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="N24" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>216</v>
       </c>
@@ -3624,16 +3412,16 @@
         <v>218</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F25" s="13" t="s">
         <v>220</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H25" s="14" t="s">
         <v>85</v>
@@ -3644,11 +3432,17 @@
       <c r="J25" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="L25" s="28" t="s">
+        <v>194</v>
+      </c>
       <c r="M25" s="13" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="N25" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>216</v>
       </c>
@@ -3659,16 +3453,16 @@
         <v>218</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F26" s="13" t="s">
         <v>221</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H26" s="14" t="s">
         <v>85</v>
@@ -3679,11 +3473,17 @@
       <c r="J26" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="L26" s="28" t="s">
+        <v>194</v>
+      </c>
       <c r="M26" s="13" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="N26" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>216</v>
       </c>
@@ -3694,16 +3494,16 @@
         <v>218</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
       <c r="F27" s="13" t="s">
         <v>223</v>
       </c>
       <c r="G27" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H27" s="14" t="s">
         <v>85</v>
@@ -3714,11 +3514,17 @@
       <c r="J27" s="15" t="s">
         <v>4</v>
       </c>
+      <c r="L27" s="28" t="s">
+        <v>194</v>
+      </c>
       <c r="M27" s="13" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="N27" s="13" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>216</v>
       </c>
@@ -3729,7 +3535,7 @@
         <v>48</v>
       </c>
       <c r="G28" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H28" s="14" t="s">
         <v>86</v>
@@ -3741,7 +3547,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>216</v>
       </c>
@@ -3752,7 +3558,7 @@
         <v>49</v>
       </c>
       <c r="G29" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H29" s="14" t="s">
         <v>87</v>
@@ -3764,7 +3570,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>216</v>
       </c>
@@ -3775,7 +3581,7 @@
         <v>50</v>
       </c>
       <c r="G30" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H30" s="14" t="s">
         <v>88</v>
@@ -3789,7 +3595,7 @@
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>216</v>
       </c>
@@ -3800,7 +3606,7 @@
         <v>51</v>
       </c>
       <c r="G31" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H31" s="14" t="s">
         <v>89</v>
@@ -3811,8 +3617,11 @@
       <c r="J31" s="15" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="L31" s="28" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>216</v>
       </c>
@@ -3823,7 +3632,7 @@
         <v>52</v>
       </c>
       <c r="G32" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H32" s="14" t="s">
         <v>90</v>
@@ -3835,7 +3644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>216</v>
       </c>
@@ -3846,7 +3655,7 @@
         <v>53</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H33" s="14" t="s">
         <v>91</v>
@@ -3858,7 +3667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>216</v>
       </c>
@@ -3869,7 +3678,7 @@
         <v>54</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H34" s="14" t="s">
         <v>92</v>
@@ -3881,7 +3690,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>216</v>
       </c>
@@ -3892,7 +3701,7 @@
         <v>55</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H35" s="14" t="s">
         <v>93</v>
@@ -3904,7 +3713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>216</v>
       </c>
@@ -3915,7 +3724,7 @@
         <v>105</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H36" s="14" t="s">
         <v>103</v>
@@ -3927,7 +3736,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>216</v>
       </c>
@@ -3938,7 +3747,7 @@
         <v>106</v>
       </c>
       <c r="G37" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H37" s="14" t="s">
         <v>104</v>
@@ -3950,7 +3759,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>216</v>
       </c>
@@ -3961,7 +3770,7 @@
         <v>109</v>
       </c>
       <c r="G38" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H38" s="14" t="s">
         <v>94</v>
@@ -3973,7 +3782,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>216</v>
       </c>
@@ -3984,7 +3793,7 @@
         <v>110</v>
       </c>
       <c r="G39" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H39" s="14" t="s">
         <v>95</v>
@@ -3996,7 +3805,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>216</v>
       </c>
@@ -4007,7 +3816,7 @@
         <v>111</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H40" s="14" t="s">
         <v>96</v>
@@ -4019,7 +3828,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>216</v>
       </c>
@@ -4030,7 +3839,7 @@
         <v>112</v>
       </c>
       <c r="G41" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H41" s="14" t="s">
         <v>97</v>
@@ -4042,7 +3851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>216</v>
       </c>
@@ -4053,7 +3862,7 @@
         <v>113</v>
       </c>
       <c r="G42" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H42" s="14" t="s">
         <v>98</v>
@@ -4065,7 +3874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>216</v>
       </c>
@@ -4076,7 +3885,7 @@
         <v>114</v>
       </c>
       <c r="G43" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H43" s="14" t="s">
         <v>99</v>
@@ -4088,7 +3897,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>216</v>
       </c>
@@ -4099,7 +3908,7 @@
         <v>115</v>
       </c>
       <c r="G44" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H44" s="14" t="s">
         <v>100</v>
@@ -4111,7 +3920,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>216</v>
       </c>
@@ -4122,7 +3931,7 @@
         <v>116</v>
       </c>
       <c r="G45" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H45" s="14" t="s">
         <v>101</v>
@@ -4134,7 +3943,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>216</v>
       </c>
@@ -4145,7 +3954,7 @@
         <v>117</v>
       </c>
       <c r="G46" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H46" s="14" t="s">
         <v>102</v>
@@ -4157,7 +3966,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>216</v>
       </c>
@@ -4168,7 +3977,7 @@
         <v>119</v>
       </c>
       <c r="G47" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H47" s="14" t="s">
         <v>118</v>
@@ -4180,7 +3989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>216</v>
       </c>
@@ -4191,7 +4000,7 @@
         <v>121</v>
       </c>
       <c r="G48" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H48" s="14" t="s">
         <v>120</v>
@@ -4203,21 +4012,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B49" s="18" t="s">
         <v>224</v>
       </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
       <c r="F49" s="14" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="I49" s="13" t="s">
         <v>276</v>
@@ -4226,21 +4038,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B50" s="18" t="s">
         <v>224</v>
       </c>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
       <c r="F50" s="14" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="I50" s="13" t="s">
         <v>277</v>
@@ -4249,21 +4064,24 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B51" s="18" t="s">
         <v>224</v>
       </c>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
       <c r="F51" s="14" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>158</v>
+        <v>27</v>
       </c>
       <c r="I51" s="13" t="s">
         <v>278</v>
@@ -4272,44 +4090,50 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B52" s="18" t="s">
         <v>224</v>
       </c>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
       <c r="F52" s="14" t="s">
-        <v>170</v>
+        <v>44</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="I52" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I52" s="17" t="s">
         <v>279</v>
       </c>
-      <c r="J52" s="15" t="s">
+      <c r="J52" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B53" s="18" t="s">
         <v>224</v>
       </c>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
       <c r="F53" s="14" t="s">
-        <v>171</v>
+        <v>46</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="I53" s="13" t="s">
         <v>280</v>
@@ -4318,7 +4142,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
         <v>216</v>
       </c>
@@ -4326,22 +4150,18 @@
         <v>224</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="G54" s="14" t="s">
+        <v>290</v>
+      </c>
+      <c r="G54" s="35"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="J54" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="H54" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="I54" s="13" t="s">
-        <v>281</v>
-      </c>
-      <c r="J54" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
         <v>216</v>
       </c>
@@ -4349,282 +4169,15 @@
         <v>224</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="G55" s="14" t="s">
+        <v>291</v>
+      </c>
+      <c r="G55" s="35"/>
+      <c r="H55" s="36"/>
+      <c r="I55" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="J55" s="15" t="s">
         <v>292</v>
-      </c>
-      <c r="H55" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="I55" s="13" t="s">
-        <v>282</v>
-      </c>
-      <c r="J55" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H56" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="I56" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="J56" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G57" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H57" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="I57" s="13" t="s">
-        <v>284</v>
-      </c>
-      <c r="J57" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B58" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="G58" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H58" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="I58" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="J58" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B59" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C59" s="14"/>
-      <c r="D59" s="14"/>
-      <c r="E59" s="14"/>
-      <c r="F59" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="G59" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="J59" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B60" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="14"/>
-      <c r="E60" s="14"/>
-      <c r="F60" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="G60" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H60" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="I60" s="13" t="s">
-        <v>287</v>
-      </c>
-      <c r="J60" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B61" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C61" s="14"/>
-      <c r="D61" s="14"/>
-      <c r="E61" s="14"/>
-      <c r="F61" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="G61" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H61" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" s="13" t="s">
-        <v>288</v>
-      </c>
-      <c r="J61" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B62" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C62" s="14"/>
-      <c r="D62" s="14"/>
-      <c r="E62" s="14"/>
-      <c r="F62" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H62" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="I62" s="13" t="s">
-        <v>289</v>
-      </c>
-      <c r="J62" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B63" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C63" s="14"/>
-      <c r="D63" s="14"/>
-      <c r="E63" s="14"/>
-      <c r="F63" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G63" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H63" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="I63" s="17" t="s">
-        <v>290</v>
-      </c>
-      <c r="J63" s="17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B64" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C64" s="14"/>
-      <c r="D64" s="14"/>
-      <c r="E64" s="14"/>
-      <c r="F64" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G64" s="14" t="s">
-        <v>292</v>
-      </c>
-      <c r="H64" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="I64" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="J64" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B65" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="G65" s="35"/>
-      <c r="H65" s="36"/>
-      <c r="I65" s="13" t="s">
-        <v>308</v>
-      </c>
-      <c r="J65" s="15" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B66" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="G66" s="35"/>
-      <c r="H66" s="36"/>
-      <c r="I66" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="J66" s="15" t="s">
-        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -4638,53 +4191,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD445CDE-C2A4-4DDD-ACCB-5C973BA54256}">
-  <dimension ref="A1:BN6"/>
+  <dimension ref="A1:BC6"/>
   <sheetViews>
-    <sheetView topLeftCell="BF1" workbookViewId="0">
-      <selection activeCell="BN1" sqref="BN1"/>
+    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" style="33" customWidth="1"/>
-    <col min="2" max="2" width="34.85546875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="57.140625" style="33" customWidth="1"/>
-    <col min="5" max="5" width="24.7109375" style="33" customWidth="1"/>
-    <col min="6" max="6" width="49.42578125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" style="33" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="33" customWidth="1"/>
-    <col min="9" max="12" width="50.7109375" style="33" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" style="33" customWidth="1"/>
-    <col min="14" max="14" width="50.7109375" style="33" customWidth="1"/>
-    <col min="15" max="15" width="51.7109375" style="33" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" style="33" customWidth="1"/>
-    <col min="17" max="17" width="9.85546875" style="33" customWidth="1"/>
+    <col min="2" max="2" width="34.88671875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="34.44140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="57.109375" style="33" customWidth="1"/>
+    <col min="5" max="5" width="24.6640625" style="33" customWidth="1"/>
+    <col min="6" max="6" width="49.44140625" style="33" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" style="33" customWidth="1"/>
+    <col min="8" max="8" width="21.88671875" style="33" customWidth="1"/>
+    <col min="9" max="12" width="50.6640625" style="33" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" style="33" customWidth="1"/>
+    <col min="14" max="14" width="50.6640625" style="33" customWidth="1"/>
+    <col min="15" max="15" width="51.6640625" style="33" customWidth="1"/>
+    <col min="16" max="17" width="17.33203125" style="33" customWidth="1"/>
     <col min="18" max="18" width="23" style="33" customWidth="1"/>
     <col min="19" max="19" width="41" style="33" customWidth="1"/>
-    <col min="20" max="20" width="45.28515625" style="33" customWidth="1"/>
-    <col min="21" max="21" width="57.140625" style="33" customWidth="1"/>
-    <col min="22" max="22" width="46.28515625" style="33" customWidth="1"/>
-    <col min="23" max="23" width="57.140625" style="33" customWidth="1"/>
-    <col min="24" max="24" width="47.7109375" style="33" customWidth="1"/>
-    <col min="25" max="25" width="21.28515625" style="33" customWidth="1"/>
-    <col min="26" max="26" width="23.28515625" style="33" customWidth="1"/>
-    <col min="27" max="27" width="29.5703125" style="33" customWidth="1"/>
-    <col min="28" max="35" width="22.7109375" style="33" customWidth="1"/>
-    <col min="36" max="37" width="23.7109375" style="33" customWidth="1"/>
-    <col min="38" max="48" width="17.28515625" style="33" customWidth="1"/>
-    <col min="49" max="59" width="16" style="33" customWidth="1"/>
-    <col min="60" max="60" width="34.28515625" style="33" customWidth="1"/>
-    <col min="61" max="61" width="15.5703125" style="33" customWidth="1"/>
-    <col min="62" max="62" width="14.7109375" style="33" customWidth="1"/>
-    <col min="63" max="63" width="12.28515625" style="33" customWidth="1"/>
-    <col min="64" max="64" width="42.42578125" style="33" bestFit="1" customWidth="1"/>
-    <col min="65" max="16384" width="11.42578125" style="33"/>
+    <col min="20" max="20" width="45.33203125" style="33" customWidth="1"/>
+    <col min="21" max="21" width="57.109375" style="33" customWidth="1"/>
+    <col min="22" max="22" width="46.33203125" style="33" customWidth="1"/>
+    <col min="23" max="23" width="57.109375" style="33" customWidth="1"/>
+    <col min="24" max="24" width="47.6640625" style="33" customWidth="1"/>
+    <col min="25" max="25" width="21.33203125" style="33" customWidth="1"/>
+    <col min="26" max="26" width="23.33203125" style="33" customWidth="1"/>
+    <col min="27" max="27" width="29.5546875" style="33" customWidth="1"/>
+    <col min="28" max="35" width="22.6640625" style="33" customWidth="1"/>
+    <col min="36" max="37" width="23.6640625" style="33" customWidth="1"/>
+    <col min="38" max="48" width="17.33203125" style="33" customWidth="1"/>
+    <col min="49" max="55" width="16" style="33" customWidth="1"/>
+    <col min="56" max="56" width="34.33203125" style="33" customWidth="1"/>
+    <col min="57" max="57" width="15.5546875" style="33" customWidth="1"/>
+    <col min="58" max="58" width="14.6640625" style="33" customWidth="1"/>
+    <col min="59" max="59" width="12.33203125" style="33" customWidth="1"/>
+    <col min="60" max="60" width="42.44140625" style="33" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="11.44140625" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" s="26" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:55" s="26" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>30</v>
@@ -4705,19 +4257,19 @@
         <v>226</v>
       </c>
       <c r="H1" s="20" t="s">
-        <v>36</v>
+        <v>303</v>
       </c>
       <c r="I1" s="20" t="s">
         <v>227</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>38</v>
+        <v>305</v>
       </c>
       <c r="K1" s="20" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="L1" s="20" t="s">
-        <v>39</v>
+        <v>306</v>
       </c>
       <c r="M1" s="20" t="s">
         <v>228</v>
@@ -4729,13 +4281,13 @@
         <v>42</v>
       </c>
       <c r="P1" s="20" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="Q1" s="20" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="R1" s="20" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="S1" s="20" t="s">
         <v>217</v>
@@ -4828,61 +4380,28 @@
         <v>121</v>
       </c>
       <c r="AW1" s="20" t="s">
-        <v>167</v>
+        <v>8</v>
       </c>
       <c r="AX1" s="20" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="AY1" s="20" t="s">
-        <v>169</v>
+        <v>43</v>
       </c>
       <c r="AZ1" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="BA1" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="BB1" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="BC1" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="BD1" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="BE1" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="BF1" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="BG1" s="20" t="s">
-        <v>177</v>
-      </c>
-      <c r="BH1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="BI1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="BJ1" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="BK1" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="BL1" s="21" t="s">
+      <c r="BA1" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="BM1" s="38" t="s">
-        <v>303</v>
-      </c>
-      <c r="BN1" s="38" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="2" spans="1:66" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="BB1" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="BC1" s="38" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="2" spans="1:55" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A2" s="22" t="s">
         <v>78</v>
       </c>
@@ -4899,7 +4418,7 @@
         <v>124</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="27">
@@ -4929,9 +4448,7 @@
       <c r="P2" s="22">
         <v>0</v>
       </c>
-      <c r="Q2" s="22">
-        <v>0</v>
-      </c>
+      <c r="Q2" s="22"/>
       <c r="R2" s="22">
         <v>0</v>
       </c>
@@ -5022,54 +4539,27 @@
       <c r="AU2" s="22">
         <v>0</v>
       </c>
-      <c r="AV2" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW2" s="22">
-        <v>0</v>
-      </c>
-      <c r="AX2" s="22">
-        <v>0</v>
-      </c>
-      <c r="AY2" s="22">
-        <v>0</v>
-      </c>
-      <c r="AZ2" s="22">
-        <v>0</v>
-      </c>
-      <c r="BA2" s="22">
-        <v>0</v>
-      </c>
-      <c r="BB2" s="22">
-        <v>0</v>
-      </c>
-      <c r="BC2" s="22">
-        <v>0</v>
-      </c>
-      <c r="BD2" s="22">
-        <v>0</v>
-      </c>
-      <c r="BE2" s="30" t="s">
+      <c r="AV2" s="22"/>
+      <c r="AW2" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="BF2" s="31" t="s">
+      <c r="AX2" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="BG2" s="32" t="s">
+      <c r="AY2" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="BH2" s="32"/>
-      <c r="BI2" s="32" t="s">
+      <c r="BA2" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="BM2" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="BN2" s="37" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:66" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="BB2" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="BC2" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:55" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
         <v>79</v>
       </c>
@@ -5086,7 +4576,7 @@
         <v>132</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="27">
@@ -5116,9 +4606,7 @@
       <c r="P3" s="22">
         <v>0</v>
       </c>
-      <c r="Q3" s="22">
-        <v>0</v>
-      </c>
+      <c r="Q3" s="22"/>
       <c r="R3" s="22">
         <v>0</v>
       </c>
@@ -5209,54 +4697,27 @@
       <c r="AU3" s="22">
         <v>0</v>
       </c>
-      <c r="AV3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AY3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BB3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="22">
-        <v>0</v>
-      </c>
-      <c r="BE3" s="30" t="s">
+      <c r="AV3" s="22"/>
+      <c r="AW3" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="BF3" s="31" t="s">
+      <c r="AX3" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="BG3" s="31" t="s">
+      <c r="AY3" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="BH3" s="32"/>
-      <c r="BI3" s="32" t="s">
+      <c r="BA3" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="BM3" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="BN3" s="37" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:66" ht="76.5" x14ac:dyDescent="0.2">
+      <c r="BB3" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="BC3" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" ht="79.2" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
         <v>80</v>
       </c>
@@ -5273,7 +4734,7 @@
         <v>136</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22">
@@ -5303,9 +4764,7 @@
       <c r="P4" s="22">
         <v>0</v>
       </c>
-      <c r="Q4" s="22">
-        <v>0</v>
-      </c>
+      <c r="Q4" s="22"/>
       <c r="R4" s="22">
         <v>0</v>
       </c>
@@ -5396,54 +4855,27 @@
       <c r="AU4" s="22">
         <v>0</v>
       </c>
-      <c r="AV4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AY4" s="22">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BA4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BB4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BD4" s="22">
-        <v>0</v>
-      </c>
-      <c r="BE4" s="30" t="s">
+      <c r="AV4" s="22"/>
+      <c r="AW4" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="BF4" s="31" t="s">
+      <c r="AX4" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="BG4" s="32" t="s">
+      <c r="AY4" s="32" t="s">
         <v>127</v>
       </c>
-      <c r="BH4" s="32"/>
-      <c r="BI4" s="32" t="s">
+      <c r="BA4" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="BM4" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="BN4" s="37" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:66" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="BB4" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="BC4" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>77</v>
       </c>
@@ -5458,7 +4890,7 @@
         <v>145</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22" t="s">
@@ -5488,9 +4920,7 @@
       <c r="P5" s="22">
         <v>0</v>
       </c>
-      <c r="Q5" s="22">
-        <v>0</v>
-      </c>
+      <c r="Q5" s="22"/>
       <c r="R5" s="22">
         <v>0</v>
       </c>
@@ -5581,54 +5011,27 @@
       <c r="AU5" s="28">
         <v>0</v>
       </c>
-      <c r="AV5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AW5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AY5" s="28">
-        <v>0</v>
-      </c>
-      <c r="AZ5" s="28">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="28">
-        <v>0</v>
-      </c>
-      <c r="BB5" s="28">
-        <v>0</v>
-      </c>
-      <c r="BC5" s="28">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="28">
-        <v>0</v>
-      </c>
-      <c r="BE5" s="30" t="s">
+      <c r="AV5" s="28"/>
+      <c r="AW5" s="30" t="s">
         <v>148</v>
       </c>
-      <c r="BF5" s="32" t="s">
+      <c r="AX5" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="BG5" s="32" t="s">
+      <c r="AY5" s="32" t="s">
         <v>152</v>
       </c>
-      <c r="BH5" s="32"/>
-      <c r="BI5" s="32" t="s">
+      <c r="BA5" s="32" t="s">
         <v>84</v>
       </c>
-      <c r="BM5" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="BN5" s="37" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:66" ht="92.25" x14ac:dyDescent="0.2">
+      <c r="BB5" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="BC5" s="37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" ht="96" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>141</v>
       </c>
@@ -5645,10 +5048,10 @@
         <v>180</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>183</v>
@@ -5677,9 +5080,7 @@
       <c r="P6" s="22">
         <v>0</v>
       </c>
-      <c r="Q6" s="22">
-        <v>0</v>
-      </c>
+      <c r="Q6" s="22"/>
       <c r="R6" s="22">
         <v>0</v>
       </c>
@@ -5698,64 +5099,64 @@
       <c r="W6" s="22">
         <v>0</v>
       </c>
-      <c r="X6" s="32" t="s">
+      <c r="X6" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="Y6" s="32" t="s">
+      <c r="Y6" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" s="32" t="s">
+      <c r="Z6" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="AA6" s="32" t="s">
+      <c r="AA6" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="AB6" s="32" t="s">
+      <c r="AB6" s="28" t="s">
         <v>192</v>
       </c>
-      <c r="AC6" s="32" t="s">
+      <c r="AC6" s="28" t="s">
         <v>189</v>
       </c>
-      <c r="AD6" s="32" t="s">
+      <c r="AD6" s="28" t="s">
         <v>190</v>
       </c>
-      <c r="AE6" s="32" t="s">
+      <c r="AE6" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="AF6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="32" t="s">
+      <c r="AF6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="AJ6" s="32" t="s">
+      <c r="AJ6" s="28" t="s">
         <v>191</v>
       </c>
-      <c r="AK6" s="32" t="s">
+      <c r="AK6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AL6" s="32" t="s">
+      <c r="AL6" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="AM6" s="32" t="s">
+      <c r="AM6" s="28" t="s">
         <v>58</v>
       </c>
-      <c r="AN6" s="32" t="s">
+      <c r="AN6" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="AO6" s="32" t="s">
+      <c r="AO6" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="AP6" s="32" t="s">
+      <c r="AP6" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="AQ6" s="32">
+      <c r="AQ6" s="28">
         <v>0</v>
       </c>
       <c r="AR6" s="28">
@@ -5770,54 +5171,29 @@
       <c r="AU6" s="28">
         <v>0</v>
       </c>
-      <c r="AV6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AW6" s="32" t="s">
-        <v>194</v>
-      </c>
-      <c r="AX6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AY6" s="32">
-        <v>0</v>
-      </c>
-      <c r="AZ6" s="32">
-        <v>0</v>
-      </c>
-      <c r="BA6" s="32" t="s">
-        <v>200</v>
-      </c>
-      <c r="BB6" s="32">
-        <v>0</v>
-      </c>
-      <c r="BC6" s="32">
-        <v>0</v>
-      </c>
-      <c r="BD6" s="32">
-        <v>0</v>
-      </c>
-      <c r="BE6" s="32" t="s">
+      <c r="AV6" s="28"/>
+      <c r="AW6" s="28" t="s">
         <v>184</v>
       </c>
-      <c r="BF6" s="32" t="s">
+      <c r="AX6" s="28" t="s">
         <v>202</v>
       </c>
-      <c r="BG6" s="32" t="s">
+      <c r="AY6" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="BH6" s="32"/>
-      <c r="BI6" s="32" t="s">
+      <c r="AZ6" s="28"/>
+      <c r="BA6" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="BM6" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="BN6" s="37" t="s">
-        <v>307</v>
+      <c r="BB6" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="BC6" s="28" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -5831,22 +5207,22 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D10" sqref="D10"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.85546875" style="2"/>
+    <col min="2" max="2" width="62.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="5" t="s">
@@ -5865,7 +5241,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -5888,7 +5264,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -5911,7 +5287,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -5931,7 +5307,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -5954,7 +5330,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="69" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -5977,7 +5353,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -6000,7 +5376,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -6023,7 +5399,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -6046,7 +5422,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -6069,7 +5445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -6092,7 +5468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -6115,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -6134,7 +5510,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -6153,7 +5529,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -6172,7 +5548,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -6191,7 +5567,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -6210,7 +5586,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -6229,7 +5605,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>204</v>
       </c>
@@ -6242,7 +5618,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>205</v>
       </c>
@@ -6255,7 +5631,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>206</v>
       </c>
@@ -6268,7 +5644,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>207</v>
       </c>
@@ -6281,7 +5657,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>208</v>
       </c>
@@ -6294,7 +5670,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>85</v>
       </c>
@@ -6317,7 +5693,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>86</v>
       </c>
@@ -6340,7 +5716,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>87</v>
       </c>
@@ -6363,7 +5739,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>88</v>
       </c>
@@ -6386,7 +5762,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>89</v>
       </c>
@@ -6409,7 +5785,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>90</v>
       </c>
@@ -6432,7 +5808,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>91</v>
       </c>
@@ -6455,7 +5831,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>92</v>
       </c>
@@ -6478,7 +5854,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>93</v>
       </c>
@@ -6501,7 +5877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
@@ -6524,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>104</v>
       </c>
@@ -6547,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>94</v>
       </c>
@@ -6570,7 +5946,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>95</v>
       </c>
@@ -6593,7 +5969,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>96</v>
       </c>
@@ -6616,7 +5992,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>97</v>
       </c>
@@ -6639,7 +6015,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>98</v>
       </c>
@@ -6662,7 +6038,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>99</v>
       </c>
@@ -6685,7 +6061,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>100</v>
       </c>
@@ -6708,7 +6084,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>101</v>
       </c>
@@ -6731,7 +6107,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>102</v>
       </c>
@@ -6754,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>118</v>
       </c>
@@ -6777,7 +6153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>120</v>
       </c>
@@ -6800,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>156</v>
       </c>
@@ -6823,7 +6199,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>157</v>
       </c>
@@ -6846,7 +6222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>158</v>
       </c>
@@ -6869,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>159</v>
       </c>
@@ -6892,7 +6268,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>160</v>
       </c>
@@ -6915,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>161</v>
       </c>
@@ -6938,7 +6314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>162</v>
       </c>
@@ -6961,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>163</v>
       </c>
@@ -6984,7 +6360,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>164</v>
       </c>
@@ -7007,7 +6383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>165</v>
       </c>
@@ -7030,7 +6406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>166</v>
       </c>
@@ -7053,7 +6429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>45</v>
       </c>
@@ -7076,7 +6452,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>26</v>
       </c>
@@ -7099,7 +6475,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>27</v>
       </c>
@@ -7122,7 +6498,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>28</v>
       </c>
@@ -7135,7 +6511,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>29</v>
       </c>
@@ -7169,9 +6545,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7378,27 +6757,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A94AA5B-6745-45A9-8FDF-DA550244BC08}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6C94548-B5A7-4218-BB29-BA92A34EF11D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a475495e-d957-4cf9-add2-7e1a4308a724"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="67187332-2de6-4d54-a903-ae3aea147a72"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -7423,9 +6790,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6C94548-B5A7-4218-BB29-BA92A34EF11D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A94AA5B-6745-45A9-8FDF-DA550244BC08}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a475495e-d957-4cf9-add2-7e1a4308a724"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="67187332-2de6-4d54-a903-ae3aea147a72"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/SampleFiles/DoPLibrary/SourceData/BaustoffindustrieTemplatesAndSheets.xlsx
+++ b/SampleFiles/DoPLibrary/SourceData/BaustoffindustrieTemplatesAndSheets.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr codeName="DieseArbeitsmappe"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\GitHub\buildingSMART\ProductData\SampleFiles\DoPLibrary\SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F51717F-FD97-4240-BD6B-D721CD58F800}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D265F7-4492-48D0-B100-B4369933A61E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="396" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Templates" sheetId="5" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="310">
   <si>
     <t>SystemName</t>
   </si>
@@ -1051,6 +1051,9 @@
   </si>
   <si>
     <t>Value1|Value2|Value3|NPD</t>
+  </si>
+  <si>
+    <t>DoP data template according to EN 771-5 (Test)</t>
   </si>
 </sst>
 </file>
@@ -1305,25 +1308,6 @@
   </cellStyles>
   <dxfs count="73">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1381,6 +1365,25 @@
         <sz val="10"/>
         <color theme="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
         <family val="2"/>
         <scheme val="none"/>
       </font>
@@ -2511,14 +2514,14 @@
     <tableColumn id="45" xr3:uid="{C8FEB31C-E786-439C-9EF6-D7C6EDB36D4E}" name="Leistung zu 9.108" dataDxfId="10"/>
     <tableColumn id="46" xr3:uid="{7DA426C6-F04F-462F-8E8F-5073B0845291}" name="Leistung zu 9.109" dataDxfId="9"/>
     <tableColumn id="47" xr3:uid="{C45B615C-C96C-4883-98A9-2825C74413E1}" name="Leistung zu 9.110" dataDxfId="8"/>
-    <tableColumn id="48" xr3:uid="{7A08FC86-461E-4D43-B179-673D163C4086}" name="Leistung zu 9.111" dataDxfId="0"/>
-    <tableColumn id="60" xr3:uid="{1B428CD1-B942-4A1D-ACBE-1C037EE4EF4E}" name="Harmonisierte technische Spezifikation" dataDxfId="7" dataCellStyle="Standard 2"/>
-    <tableColumn id="61" xr3:uid="{79E50F33-F59A-4A05-8902-22640B19B8E2}" name="Name, Funktion" dataDxfId="6"/>
-    <tableColumn id="62" xr3:uid="{6B4AC729-A672-46C0-9393-64E19C5BBE95}" name="Ort und Datum" dataDxfId="5"/>
-    <tableColumn id="63" xr3:uid="{03A3A100-F48E-4BCD-BC7C-1A0F3A675C39}" name="Unterschrift" dataDxfId="4"/>
-    <tableColumn id="64" xr3:uid="{DE5DE9CF-2ECB-4520-90F1-D7BB0934C878}" name="Dokumentenreferenzierung/ProductDataSheet" dataDxfId="3"/>
-    <tableColumn id="65" xr3:uid="{DAA38489-BC36-4FC1-8105-47753E5BF89F}" name="Omniclass" dataDxfId="2"/>
-    <tableColumn id="66" xr3:uid="{7D636AEA-8665-43B5-B305-974C6190537C}" name="Uniclass" dataDxfId="1"/>
+    <tableColumn id="48" xr3:uid="{7A08FC86-461E-4D43-B179-673D163C4086}" name="Leistung zu 9.111" dataDxfId="7"/>
+    <tableColumn id="60" xr3:uid="{1B428CD1-B942-4A1D-ACBE-1C037EE4EF4E}" name="Harmonisierte technische Spezifikation" dataDxfId="6" dataCellStyle="Standard 2"/>
+    <tableColumn id="61" xr3:uid="{79E50F33-F59A-4A05-8902-22640B19B8E2}" name="Name, Funktion" dataDxfId="5"/>
+    <tableColumn id="62" xr3:uid="{6B4AC729-A672-46C0-9393-64E19C5BBE95}" name="Ort und Datum" dataDxfId="4"/>
+    <tableColumn id="63" xr3:uid="{03A3A100-F48E-4BCD-BC7C-1A0F3A675C39}" name="Unterschrift" dataDxfId="3"/>
+    <tableColumn id="64" xr3:uid="{DE5DE9CF-2ECB-4520-90F1-D7BB0934C878}" name="Dokumentenreferenzierung/ProductDataSheet" dataDxfId="2"/>
+    <tableColumn id="65" xr3:uid="{DAA38489-BC36-4FC1-8105-47753E5BF89F}" name="Omniclass" dataDxfId="1"/>
+    <tableColumn id="66" xr3:uid="{7D636AEA-8665-43B5-B305-974C6190537C}" name="Uniclass" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2789,28 +2792,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A07687-0D17-4D6E-8F6E-1C562F7CF42C}">
   <dimension ref="A1:N55"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H44" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D42" sqref="D42"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="13" customWidth="1"/>
-    <col min="2" max="4" width="20.6640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="18.88671875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="24.5546875" style="13" customWidth="1"/>
-    <col min="8" max="8" width="39.33203125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="41.33203125" style="13" customWidth="1"/>
-    <col min="10" max="13" width="22.33203125" style="13" customWidth="1"/>
-    <col min="14" max="14" width="41.5546875" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="11.5546875" style="13"/>
+    <col min="1" max="1" width="17.28515625" style="13" customWidth="1"/>
+    <col min="2" max="4" width="20.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="24.5703125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="21.7109375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="41.28515625" style="13" customWidth="1"/>
+    <col min="10" max="13" width="22.28515625" style="13" customWidth="1"/>
+    <col min="14" max="14" width="41.5703125" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
@@ -2854,7 +2857,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>216</v>
       </c>
@@ -2877,7 +2880,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>216</v>
       </c>
@@ -2900,7 +2903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>216</v>
       </c>
@@ -2923,7 +2926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>216</v>
       </c>
@@ -2949,7 +2952,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>216</v>
       </c>
@@ -2972,7 +2975,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>216</v>
       </c>
@@ -2995,7 +2998,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>216</v>
       </c>
@@ -3018,7 +3021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>216</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
         <v>216</v>
       </c>
@@ -3064,7 +3067,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>216</v>
       </c>
@@ -3087,7 +3090,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>216</v>
       </c>
@@ -3110,7 +3113,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>216</v>
       </c>
@@ -3133,7 +3136,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
         <v>216</v>
       </c>
@@ -3156,7 +3159,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
         <v>216</v>
       </c>
@@ -3179,7 +3182,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
         <v>216</v>
       </c>
@@ -3202,7 +3205,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
         <v>216</v>
       </c>
@@ -3225,7 +3228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
         <v>216</v>
       </c>
@@ -3248,7 +3251,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
         <v>216</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
         <v>216</v>
       </c>
@@ -3294,7 +3297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
         <v>216</v>
       </c>
@@ -3317,7 +3320,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A22" s="13" t="s">
         <v>216</v>
       </c>
@@ -3340,7 +3343,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
         <v>216</v>
       </c>
@@ -3363,7 +3366,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="13" t="s">
         <v>216</v>
       </c>
@@ -3401,7 +3404,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A25" s="13" t="s">
         <v>216</v>
       </c>
@@ -3442,7 +3445,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="13" t="s">
         <v>216</v>
       </c>
@@ -3483,7 +3486,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="13" t="s">
         <v>216</v>
       </c>
@@ -3524,7 +3527,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A28" s="13" t="s">
         <v>216</v>
       </c>
@@ -3547,7 +3550,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="13" t="s">
         <v>216</v>
       </c>
@@ -3570,7 +3573,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="13" t="s">
         <v>216</v>
       </c>
@@ -3595,7 +3598,7 @@
       <c r="L30" s="16"/>
       <c r="M30" s="16"/>
     </row>
-    <row r="31" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A31" s="13" t="s">
         <v>216</v>
       </c>
@@ -3621,7 +3624,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="13" t="s">
         <v>216</v>
       </c>
@@ -3644,7 +3647,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
         <v>216</v>
       </c>
@@ -3667,7 +3670,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
         <v>216</v>
       </c>
@@ -3690,7 +3693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
         <v>216</v>
       </c>
@@ -3713,7 +3716,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
         <v>216</v>
       </c>
@@ -3736,7 +3739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
         <v>216</v>
       </c>
@@ -3759,12 +3762,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A38" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F38" s="14" t="s">
         <v>109</v>
@@ -3782,12 +3785,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F39" s="14" t="s">
         <v>110</v>
@@ -3805,12 +3808,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F40" s="14" t="s">
         <v>111</v>
@@ -3828,12 +3831,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F41" s="14" t="s">
         <v>112</v>
@@ -3851,12 +3854,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B42" s="18" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F42" s="14" t="s">
         <v>113</v>
@@ -3874,12 +3877,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B43" s="18" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F43" s="14" t="s">
         <v>114</v>
@@ -3897,12 +3900,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B44" s="18" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F44" s="14" t="s">
         <v>115</v>
@@ -3920,12 +3923,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B45" s="18" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F45" s="14" t="s">
         <v>116</v>
@@ -3943,12 +3946,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B46" s="18" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F46" s="14" t="s">
         <v>117</v>
@@ -3966,12 +3969,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B47" s="18" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F47" s="14" t="s">
         <v>119</v>
@@ -3989,12 +3992,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>216</v>
       </c>
       <c r="B48" s="18" t="s">
-        <v>224</v>
+        <v>309</v>
       </c>
       <c r="F48" s="14" t="s">
         <v>121</v>
@@ -4012,7 +4015,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
         <v>216</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
         <v>216</v>
       </c>
@@ -4064,7 +4067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
         <v>216</v>
       </c>
@@ -4090,7 +4093,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
         <v>216</v>
       </c>
@@ -4116,7 +4119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
         <v>216</v>
       </c>
@@ -4142,7 +4145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
         <v>216</v>
       </c>
@@ -4161,7 +4164,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
         <v>216</v>
       </c>
@@ -4193,48 +4196,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD445CDE-C2A4-4DDD-ACCB-5C973BA54256}">
   <dimension ref="A1:BC6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AN1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AV2" sqref="AV2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25" style="33" customWidth="1"/>
-    <col min="2" max="2" width="34.88671875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="34.44140625" style="33" customWidth="1"/>
-    <col min="4" max="4" width="57.109375" style="33" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" style="33" customWidth="1"/>
-    <col min="6" max="6" width="49.44140625" style="33" customWidth="1"/>
-    <col min="7" max="7" width="21.33203125" style="33" customWidth="1"/>
-    <col min="8" max="8" width="21.88671875" style="33" customWidth="1"/>
-    <col min="9" max="12" width="50.6640625" style="33" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" style="33" customWidth="1"/>
-    <col min="14" max="14" width="50.6640625" style="33" customWidth="1"/>
-    <col min="15" max="15" width="51.6640625" style="33" customWidth="1"/>
-    <col min="16" max="17" width="17.33203125" style="33" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="34.42578125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="57.140625" style="33" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" style="33" customWidth="1"/>
+    <col min="6" max="6" width="49.42578125" style="33" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" style="33" customWidth="1"/>
+    <col min="8" max="8" width="21.85546875" style="33" customWidth="1"/>
+    <col min="9" max="12" width="50.7109375" style="33" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" style="33" customWidth="1"/>
+    <col min="14" max="14" width="50.7109375" style="33" customWidth="1"/>
+    <col min="15" max="15" width="51.7109375" style="33" customWidth="1"/>
+    <col min="16" max="17" width="17.28515625" style="33" customWidth="1"/>
     <col min="18" max="18" width="23" style="33" customWidth="1"/>
     <col min="19" max="19" width="41" style="33" customWidth="1"/>
-    <col min="20" max="20" width="45.33203125" style="33" customWidth="1"/>
-    <col min="21" max="21" width="57.109375" style="33" customWidth="1"/>
-    <col min="22" max="22" width="46.33203125" style="33" customWidth="1"/>
-    <col min="23" max="23" width="57.109375" style="33" customWidth="1"/>
-    <col min="24" max="24" width="47.6640625" style="33" customWidth="1"/>
-    <col min="25" max="25" width="21.33203125" style="33" customWidth="1"/>
-    <col min="26" max="26" width="23.33203125" style="33" customWidth="1"/>
-    <col min="27" max="27" width="29.5546875" style="33" customWidth="1"/>
-    <col min="28" max="35" width="22.6640625" style="33" customWidth="1"/>
-    <col min="36" max="37" width="23.6640625" style="33" customWidth="1"/>
-    <col min="38" max="48" width="17.33203125" style="33" customWidth="1"/>
+    <col min="20" max="20" width="45.28515625" style="33" customWidth="1"/>
+    <col min="21" max="21" width="57.140625" style="33" customWidth="1"/>
+    <col min="22" max="22" width="46.28515625" style="33" customWidth="1"/>
+    <col min="23" max="23" width="57.140625" style="33" customWidth="1"/>
+    <col min="24" max="24" width="47.7109375" style="33" customWidth="1"/>
+    <col min="25" max="25" width="21.28515625" style="33" customWidth="1"/>
+    <col min="26" max="26" width="23.28515625" style="33" customWidth="1"/>
+    <col min="27" max="27" width="29.5703125" style="33" customWidth="1"/>
+    <col min="28" max="35" width="22.7109375" style="33" customWidth="1"/>
+    <col min="36" max="37" width="23.7109375" style="33" customWidth="1"/>
+    <col min="38" max="48" width="17.28515625" style="33" customWidth="1"/>
     <col min="49" max="55" width="16" style="33" customWidth="1"/>
-    <col min="56" max="56" width="34.33203125" style="33" customWidth="1"/>
-    <col min="57" max="57" width="15.5546875" style="33" customWidth="1"/>
-    <col min="58" max="58" width="14.6640625" style="33" customWidth="1"/>
-    <col min="59" max="59" width="12.33203125" style="33" customWidth="1"/>
-    <col min="60" max="60" width="42.44140625" style="33" bestFit="1" customWidth="1"/>
-    <col min="61" max="16384" width="11.44140625" style="33"/>
+    <col min="56" max="56" width="34.28515625" style="33" customWidth="1"/>
+    <col min="57" max="57" width="15.5703125" style="33" customWidth="1"/>
+    <col min="58" max="58" width="14.7109375" style="33" customWidth="1"/>
+    <col min="59" max="59" width="12.28515625" style="33" customWidth="1"/>
+    <col min="60" max="60" width="42.42578125" style="33" bestFit="1" customWidth="1"/>
+    <col min="61" max="16384" width="11.42578125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="26" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:55" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>283</v>
       </c>
@@ -4401,7 +4404,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="2" spans="1:55" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
         <v>78</v>
       </c>
@@ -4559,7 +4562,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:55" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>79</v>
       </c>
@@ -4717,7 +4720,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="4" spans="1:55" ht="79.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
         <v>80</v>
       </c>
@@ -4875,7 +4878,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="5" spans="1:55" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>77</v>
       </c>
@@ -5031,7 +5034,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="6" spans="1:55" ht="96" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:55" ht="92.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
         <v>141</v>
       </c>
@@ -5210,19 +5213,19 @@
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="48.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.88671875" style="2"/>
+    <col min="2" max="2" width="62.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="48.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="5" t="s">
@@ -5241,7 +5244,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -5264,7 +5267,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
@@ -5287,7 +5290,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
@@ -5307,7 +5310,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>12</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -5353,7 +5356,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>14</v>
       </c>
@@ -5376,7 +5379,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>15</v>
       </c>
@@ -5399,7 +5402,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -5422,7 +5425,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
@@ -5445,7 +5448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>18</v>
       </c>
@@ -5468,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="92.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>19</v>
       </c>
@@ -5491,7 +5494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>20</v>
       </c>
@@ -5510,7 +5513,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="4"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
@@ -5529,7 +5532,7 @@
       <c r="F14" s="3"/>
       <c r="G14" s="4"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -5548,7 +5551,7 @@
       <c r="F15" s="3"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>23</v>
       </c>
@@ -5567,7 +5570,7 @@
       <c r="F16" s="3"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
@@ -5586,7 +5589,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="4"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>25</v>
       </c>
@@ -5605,7 +5608,7 @@
       <c r="F18" s="3"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>204</v>
       </c>
@@ -5618,7 +5621,7 @@
       <c r="F19" s="3"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>205</v>
       </c>
@@ -5631,7 +5634,7 @@
       <c r="F20" s="3"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>206</v>
       </c>
@@ -5644,7 +5647,7 @@
       <c r="F21" s="3"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>207</v>
       </c>
@@ -5657,7 +5660,7 @@
       <c r="F22" s="3"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>208</v>
       </c>
@@ -5670,7 +5673,7 @@
       <c r="F23" s="3"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>85</v>
       </c>
@@ -5693,7 +5696,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>86</v>
       </c>
@@ -5716,7 +5719,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>87</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>88</v>
       </c>
@@ -5762,7 +5765,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>89</v>
       </c>
@@ -5785,7 +5788,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>90</v>
       </c>
@@ -5808,7 +5811,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>91</v>
       </c>
@@ -5831,7 +5834,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>92</v>
       </c>
@@ -5854,7 +5857,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>93</v>
       </c>
@@ -5877,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>103</v>
       </c>
@@ -5900,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>104</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>94</v>
       </c>
@@ -5946,7 +5949,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>95</v>
       </c>
@@ -5969,7 +5972,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>96</v>
       </c>
@@ -5992,7 +5995,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>97</v>
       </c>
@@ -6015,7 +6018,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>98</v>
       </c>
@@ -6038,7 +6041,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>99</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>100</v>
       </c>
@@ -6084,7 +6087,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>101</v>
       </c>
@@ -6107,7 +6110,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>102</v>
       </c>
@@ -6130,7 +6133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>118</v>
       </c>
@@ -6153,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>120</v>
       </c>
@@ -6176,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>156</v>
       </c>
@@ -6199,7 +6202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>157</v>
       </c>
@@ -6222,7 +6225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>158</v>
       </c>
@@ -6245,7 +6248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>159</v>
       </c>
@@ -6268,7 +6271,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>160</v>
       </c>
@@ -6291,7 +6294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>161</v>
       </c>
@@ -6314,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>162</v>
       </c>
@@ -6337,7 +6340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>163</v>
       </c>
@@ -6360,7 +6363,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>164</v>
       </c>
@@ -6383,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>165</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>166</v>
       </c>
@@ -6429,7 +6432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
         <v>45</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
         <v>26</v>
       </c>
@@ -6475,7 +6478,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
         <v>27</v>
       </c>
@@ -6498,7 +6501,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
         <v>28</v>
       </c>
@@ -6511,7 +6514,7 @@
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
         <v>29</v>
       </c>

--- a/SampleFiles/DoPLibrary/SourceData/BaustoffindustrieTemplatesAndSheets.xlsx
+++ b/SampleFiles/DoPLibrary/SourceData/BaustoffindustrieTemplatesAndSheets.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\GitHub\buildingSMART\ProductData\SampleFiles\DoPLibrary\SourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2D265F7-4492-48D0-B100-B4369933A61E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E072C6-DD29-41C7-B7DC-D6E3CBC9549F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="313">
   <si>
     <t>SystemName</t>
   </si>
@@ -41,16 +41,7 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>PrimaryMeasureType</t>
-  </si>
-  <si>
     <t>IfcLabel</t>
-  </si>
-  <si>
-    <t>SiUnit</t>
-  </si>
-  <si>
-    <t>SiPrefix</t>
   </si>
   <si>
     <t>Definition</t>
@@ -1054,6 +1045,24 @@
   </si>
   <si>
     <t>DoP data template according to EN 771-5 (Test)</t>
+  </si>
+  <si>
+    <t>newton per square millimetre</t>
+  </si>
+  <si>
+    <t>IfcPressureMeasure</t>
+  </si>
+  <si>
+    <t>IfcLengthMeasure</t>
+  </si>
+  <si>
+    <t>Typical unit code</t>
+  </si>
+  <si>
+    <t>MeasureType</t>
+  </si>
+  <si>
+    <t>milli metre</t>
   </si>
 </sst>
 </file>
@@ -1306,7 +1315,7 @@
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1" xr:uid="{EAEE7FC7-4A81-9942-B117-D2B94E1E7A05}"/>
   </cellStyles>
-  <dxfs count="73">
+  <dxfs count="72">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2262,9 +2271,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2441,21 +2447,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A43E1EF1-C73D-4FFE-8494-D98BFCE38C28}" name="Tabelle1" displayName="Tabelle1" ref="A1:N55" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
-  <autoFilter ref="A1:N55" xr:uid="{EA77667F-04C5-4BD2-8664-4020DFB6FBC2}"/>
-  <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{52CBB667-7F54-42E3-AA61-383E71E3B9F4}" name="Publisher" dataDxfId="70"/>
-    <tableColumn id="2" xr3:uid="{D419FC68-88B2-43DE-82D2-DC34F25E04E1}" name="DataTemplate" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{DD6A38D6-62C6-4BB6-A075-11C794A8B409}" name="ComplexGroupName" dataDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{C4F88858-12CA-4D9A-BC04-8A937FEEA262}" name="ComplexGroupDescription" dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{09C4298E-AF58-4E87-8BD9-50BCB19759BB}" name="ComplexGroupGuid" dataDxfId="66"/>
-    <tableColumn id="3" xr3:uid="{45973D09-F8C9-427A-BE6D-012ECBE3818F}" name="SystemName" dataDxfId="65"/>
-    <tableColumn id="4" xr3:uid="{B5FE4866-9484-44FA-9AC6-C5D42708AEA5}" name="Definition" dataDxfId="64"/>
-    <tableColumn id="9" xr3:uid="{7D41BE2A-6B59-419D-8E4D-529F7C465C98}" name="InternalRemark" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{C08F0949-1E18-4C1D-82D1-8BB0B2131C50}" name="GlobalId" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{D4929CC7-CF5C-4AB0-88A8-73D6ABFE7333}" name="PrimaryMeasureType" dataDxfId="61"/>
-    <tableColumn id="7" xr3:uid="{5A6F5A6F-70A2-4BF2-BC72-7CC12E26411C}" name="SiPrefix" dataDxfId="60"/>
-    <tableColumn id="8" xr3:uid="{C1585F7B-732E-4D47-9745-430F06A61639}" name="SiUnit" dataDxfId="59"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A43E1EF1-C73D-4FFE-8494-D98BFCE38C28}" name="Tabelle1" displayName="Tabelle1" ref="A1:M55" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A1:M55" xr:uid="{EA77667F-04C5-4BD2-8664-4020DFB6FBC2}"/>
+  <tableColumns count="13">
+    <tableColumn id="1" xr3:uid="{52CBB667-7F54-42E3-AA61-383E71E3B9F4}" name="Publisher" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{D419FC68-88B2-43DE-82D2-DC34F25E04E1}" name="DataTemplate" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{DD6A38D6-62C6-4BB6-A075-11C794A8B409}" name="ComplexGroupName" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{C4F88858-12CA-4D9A-BC04-8A937FEEA262}" name="ComplexGroupDescription" dataDxfId="66"/>
+    <tableColumn id="13" xr3:uid="{09C4298E-AF58-4E87-8BD9-50BCB19759BB}" name="ComplexGroupGuid" dataDxfId="65"/>
+    <tableColumn id="3" xr3:uid="{45973D09-F8C9-427A-BE6D-012ECBE3818F}" name="SystemName" dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{B5FE4866-9484-44FA-9AC6-C5D42708AEA5}" name="Definition" dataDxfId="63"/>
+    <tableColumn id="9" xr3:uid="{7D41BE2A-6B59-419D-8E4D-529F7C465C98}" name="InternalRemark" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{C08F0949-1E18-4C1D-82D1-8BB0B2131C50}" name="GlobalId" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{D4929CC7-CF5C-4AB0-88A8-73D6ABFE7333}" name="MeasureType" dataDxfId="60"/>
+    <tableColumn id="8" xr3:uid="{C1585F7B-732E-4D47-9745-430F06A61639}" name="Typical unit code" dataDxfId="59"/>
     <tableColumn id="10" xr3:uid="{02790CF5-92DC-4330-B908-E759A726EDFA}" name="TestStandard" dataDxfId="58"/>
     <tableColumn id="14" xr3:uid="{065C5948-AE80-4944-B977-227E6F111F4B}" name="AllowedValues" dataDxfId="57"/>
   </tableColumns>
@@ -2790,1397 +2795,1395 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A07687-0D17-4D6E-8F6E-1C562F7CF42C}">
-  <dimension ref="A1:N55"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="G19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="13" customWidth="1"/>
-    <col min="2" max="4" width="20.7109375" style="13" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="13" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="13" customWidth="1"/>
     <col min="5" max="5" width="18.85546875" style="13" customWidth="1"/>
     <col min="6" max="6" width="27.28515625" style="13" customWidth="1"/>
     <col min="7" max="7" width="24.5703125" style="13" customWidth="1"/>
     <col min="8" max="8" width="21.7109375" style="13" customWidth="1"/>
     <col min="9" max="9" width="41.28515625" style="13" customWidth="1"/>
-    <col min="10" max="13" width="22.28515625" style="13" customWidth="1"/>
-    <col min="14" max="14" width="41.5703125" style="13" customWidth="1"/>
-    <col min="15" max="16384" width="11.5703125" style="13"/>
+    <col min="10" max="10" width="22.28515625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="27.7109375" style="13" customWidth="1"/>
+    <col min="12" max="12" width="22.28515625" style="13" customWidth="1"/>
+    <col min="13" max="13" width="41.5703125" style="13" customWidth="1"/>
+    <col min="14" max="16384" width="11.5703125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="I1" s="12" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>310</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="12" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="M5" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="J8" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="G9" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H9" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="J9" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="J10" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G11" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="J11" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="G12" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="J13" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="J14" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F16" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="G16" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F17" s="14" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="G17" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="J17" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>304</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H18" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="J18" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H19" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H20" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="J20" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H21" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="J21" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>210</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H22" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H23" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="J23" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F24" s="18" t="s">
         <v>216</v>
       </c>
-      <c r="B2" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H2" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="N5" s="13" t="s">
+      <c r="G24" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H24" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H25" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="J25" s="15" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>303</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="J9" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="K25" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" s="13" t="s">
-        <v>237</v>
-      </c>
-      <c r="J10" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>284</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>238</v>
-      </c>
-      <c r="J11" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>306</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="J12" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H13" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="J13" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H14" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="13" t="s">
-        <v>241</v>
-      </c>
-      <c r="J14" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>242</v>
-      </c>
-      <c r="J15" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>285</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="J16" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>244</v>
-      </c>
-      <c r="J17" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F18" s="14" t="s">
+    </row>
+    <row r="26" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A26" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E26" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="G26" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H26" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="K26" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="G18" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>217</v>
-      </c>
-      <c r="G19" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="I19" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="G20" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="I20" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="J20" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G21" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="I21" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="J21" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F22" s="14" t="s">
+      <c r="L26" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A27" s="13" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H22" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="J22" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F23" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G23" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H23" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F24" s="18" t="s">
+      <c r="B27" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>215</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>295</v>
+      </c>
+      <c r="E27" s="18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="J27" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="L27" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="G24" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H24" s="14" t="s">
+      <c r="M27" s="13" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A28" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="I28" s="19" t="s">
+        <v>252</v>
+      </c>
+      <c r="J28" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A29" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J29" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A30" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="G30" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H30" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="I24" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="J24" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="M24" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="N24" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G25" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H25" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="J25" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L25" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="M25" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="N25" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B26" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F26" s="13" t="s">
+      <c r="I30" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="J30" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K30" s="16"/>
+      <c r="L30" s="16"/>
+    </row>
+    <row r="31" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B31" s="18" t="s">
         <v>221</v>
       </c>
-      <c r="G26" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H26" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="J26" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L26" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="M26" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="N26" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>218</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>298</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>300</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="G27" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H27" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="J27" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L27" s="28" t="s">
-        <v>194</v>
-      </c>
-      <c r="M27" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="N27" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F28" s="14" t="s">
+      <c r="F31" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H28" s="14" t="s">
+      <c r="G31" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H31" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="19" t="s">
+      <c r="I31" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B29" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F29" s="14" t="s">
+      <c r="J31" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="K31" s="28"/>
+    </row>
+    <row r="32" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="F32" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G29" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H29" s="14" t="s">
+      <c r="G32" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H32" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="I29" s="13" t="s">
+      <c r="I32" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F30" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="G30" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H30" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="J30" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="16"/>
-      <c r="M30" s="16"/>
-    </row>
-    <row r="31" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F31" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H31" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="I31" s="13" t="s">
-        <v>258</v>
-      </c>
-      <c r="J31" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="L31" s="28" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>224</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="G32" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H32" s="14" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="13" t="s">
-        <v>259</v>
-      </c>
       <c r="J32" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G33" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H33" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J33" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A34" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G34" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H34" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G35" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="G36" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H36" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A37" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F37" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H37" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A38" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F38" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="G37" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="I37" s="13" t="s">
+      <c r="G38" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H38" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="J38" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="J39" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A40" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="G40" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H40" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="I40" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B38" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F38" s="14" t="s">
+      <c r="J40" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A41" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="G38" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H38" s="14" t="s">
+      <c r="G41" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H41" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="I38" s="13" t="s">
+      <c r="I41" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F39" s="14" t="s">
+      <c r="J41" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A42" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F42" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="G39" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H39" s="14" t="s">
+      <c r="G42" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H42" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="I39" s="13" t="s">
+      <c r="I42" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B40" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F40" s="14" t="s">
+      <c r="J42" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A43" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="G40" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H40" s="14" t="s">
+      <c r="G43" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H43" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="I40" s="13" t="s">
+      <c r="I43" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B41" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F41" s="14" t="s">
+      <c r="J43" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F44" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G41" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H41" s="14" t="s">
+      <c r="G44" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H44" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I41" s="13" t="s">
+      <c r="I44" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B42" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F42" s="14" t="s">
+      <c r="J44" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A45" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B45" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F45" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="G42" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H42" s="14" t="s">
+      <c r="G45" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H45" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="I42" s="13" t="s">
+      <c r="I45" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="J42" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B43" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F43" s="14" t="s">
+      <c r="J45" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F46" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G43" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H43" s="14" t="s">
+      <c r="G46" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H46" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="I43" s="13" t="s">
+      <c r="I46" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="J43" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F44" s="14" t="s">
+      <c r="J46" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H47" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="G44" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H44" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="I44" s="13" t="s">
+      <c r="I47" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="J44" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B45" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F45" s="14" t="s">
-        <v>116</v>
-      </c>
-      <c r="G45" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H45" s="14" t="s">
-        <v>101</v>
-      </c>
-      <c r="I45" s="13" t="s">
+      <c r="J47" s="15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" s="18" t="s">
+        <v>306</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="G48" s="14" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="I48" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="J45" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="G46" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H46" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I46" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="J46" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B47" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F47" s="14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G47" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H47" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="I47" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
-        <v>216</v>
-      </c>
-      <c r="B48" s="18" t="s">
-        <v>309</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G48" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="H48" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="I48" s="13" t="s">
-        <v>275</v>
-      </c>
       <c r="J48" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A49" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B49" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C49" s="14"/>
       <c r="D49" s="14"/>
       <c r="E49" s="14"/>
       <c r="F49" s="14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G49" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H49" s="14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I49" s="13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="J49" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A50" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C50" s="14"/>
       <c r="D50" s="14"/>
       <c r="E50" s="14"/>
       <c r="F50" s="14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G50" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H50" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="J50" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
       <c r="E51" s="14"/>
       <c r="F51" s="14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G51" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H51" s="14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="J51" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A52" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14"/>
       <c r="E52" s="14"/>
       <c r="F52" s="14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="G52" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H52" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I52" s="17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="J52" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A53" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
       <c r="E53" s="14"/>
       <c r="F53" s="14" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G53" s="14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="H53" s="14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="J53" s="15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G54" s="35"/>
       <c r="H54" s="36"/>
       <c r="I54" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="J54" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A55" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G55" s="35"/>
       <c r="H55" s="36"/>
       <c r="I55" s="13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="J55" s="15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -4196,8 +4199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD445CDE-C2A4-4DDD-ACCB-5C973BA54256}">
   <dimension ref="A1:BC6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AV2" sqref="AV2"/>
+    <sheetView topLeftCell="AT1" workbookViewId="0">
+      <selection activeCell="BC4" sqref="BC4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4239,205 +4242,205 @@
   <sheetData>
     <row r="1" spans="1:55" s="26" customFormat="1" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B1" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="F1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>34</v>
-      </c>
       <c r="G1" s="20" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H1" s="20" t="s">
+        <v>300</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="K1" s="20" t="s">
+        <v>281</v>
+      </c>
+      <c r="L1" s="20" t="s">
         <v>303</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="K1" s="20" t="s">
-        <v>284</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>306</v>
-      </c>
       <c r="M1" s="20" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="N1" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O1" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="20" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q1" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="R1" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="S1" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="T1" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="U1" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="V1" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="X1" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z1" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA1" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK1" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL1" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AM1" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AN1" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AO1" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AP1" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AQ1" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AR1" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AS1" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AT1" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AU1" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AV1" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AW1" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AX1" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="AY1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="AZ1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="P1" s="20" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>304</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>307</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="T1" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="U1" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="V1" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="W1" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="X1" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="Y1" s="25" t="s">
-        <v>220</v>
-      </c>
-      <c r="Z1" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="AA1" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="AB1" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="AC1" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="AD1" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE1" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="AF1" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="AG1" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="AH1" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="AI1" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="AJ1" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AK1" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AL1" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AM1" s="20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AN1" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO1" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AP1" s="20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AQ1" s="20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AR1" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AS1" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AT1" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="AU1" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="AV1" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AW1" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="AX1" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY1" s="20" t="s">
+      <c r="BA1" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="AZ1" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="BA1" s="21" t="s">
-        <v>46</v>
-      </c>
       <c r="BB1" s="38" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="BC1" s="38" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2" spans="1:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A2" s="22" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B2" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="C2" s="27" t="s">
-        <v>125</v>
-      </c>
       <c r="D2" s="22" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E2" s="27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F2" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="27">
         <v>3</v>
       </c>
       <c r="I2" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J2" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M2" s="22">
         <v>0</v>
@@ -4471,10 +4474,10 @@
         <v>0</v>
       </c>
       <c r="X2" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="Y2" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Z2" s="22">
         <v>0</v>
@@ -4504,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="AI2" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AJ2" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AK2" s="22">
         <v>0</v>
@@ -4544,58 +4547,58 @@
       </c>
       <c r="AV2" s="22"/>
       <c r="AW2" s="30" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="AX2" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AY2" s="32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BA2" s="32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="BB2" s="37" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="BC2" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="22" t="s">
-        <v>131</v>
-      </c>
-      <c r="E3" s="22" t="s">
-        <v>132</v>
-      </c>
       <c r="F3" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="27">
         <v>3</v>
       </c>
       <c r="I3" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="J3" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K3" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="L3" s="22" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="M3" s="22">
         <v>0</v>
@@ -4629,52 +4632,52 @@
         <v>0</v>
       </c>
       <c r="X3" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z3" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="AA3" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="22">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK3" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL3" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB3" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="AC3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="22">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ3" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK3" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL3" s="28" t="s">
-        <v>64</v>
-      </c>
       <c r="AM3" s="28" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AN3" s="22">
         <v>0</v>
@@ -4702,58 +4705,58 @@
       </c>
       <c r="AV3" s="22"/>
       <c r="AW3" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="AX3" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AY3" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BA3" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="BB3" s="37" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="BC3" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:55" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A4" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="E4" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="22" t="s">
-        <v>136</v>
-      </c>
       <c r="F4" s="22" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="22">
         <v>3</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J4" s="22">
         <v>0</v>
       </c>
       <c r="K4" s="22" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M4" s="22">
         <v>0</v>
@@ -4787,17 +4790,17 @@
         <v>0</v>
       </c>
       <c r="X4" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z4" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA4" s="28" t="s">
         <v>59</v>
       </c>
-      <c r="Y4" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z4" s="28" t="s">
-        <v>61</v>
-      </c>
-      <c r="AA4" s="28" t="s">
-        <v>62</v>
-      </c>
       <c r="AB4" s="22">
         <v>0</v>
       </c>
@@ -4820,16 +4823,16 @@
         <v>0</v>
       </c>
       <c r="AI4" s="28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="AJ4" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AK4" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AL4" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AM4" s="22">
         <v>0</v>
@@ -4860,47 +4863,47 @@
       </c>
       <c r="AV4" s="22"/>
       <c r="AW4" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="AX4" s="31" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="AY4" s="32" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="BA4" s="32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="BB4" s="37" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="BC4" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5" spans="1:55" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F5" s="22" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G5" s="22"/>
       <c r="H5" s="22" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="I5" s="22" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="J5" s="22">
         <v>0</v>
@@ -4909,7 +4912,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="22" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M5" s="22">
         <v>0</v>
@@ -4943,32 +4946,32 @@
         <v>0</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="Y5" s="28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Z5" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA5" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB5" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="AA5" s="28" t="s">
+      <c r="AC5" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="AD5" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="AB5" s="28" t="s">
+      <c r="AE5" s="28" t="s">
         <v>71</v>
       </c>
-      <c r="AC5" s="28" t="s">
+      <c r="AF5" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AD5" s="28" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE5" s="28" t="s">
-        <v>74</v>
-      </c>
-      <c r="AF5" s="28" t="s">
-        <v>75</v>
-      </c>
       <c r="AG5" s="28">
         <v>0</v>
       </c>
@@ -4976,31 +4979,31 @@
         <v>0</v>
       </c>
       <c r="AI5" s="28" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="AJ5" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="AK5" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AL5" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AM5" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AN5" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AO5" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AP5" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AQ5" s="28" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AR5" s="28">
         <v>0</v>
@@ -5016,51 +5019,51 @@
       </c>
       <c r="AV5" s="28"/>
       <c r="AW5" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="AX5" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="AX5" s="32" t="s">
-        <v>151</v>
-      </c>
       <c r="AY5" s="32" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="BA5" s="32" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="BB5" s="37" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="BC5" s="37" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:55" ht="92.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E6" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="H6" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="32" t="s">
-        <v>288</v>
-      </c>
-      <c r="G6" s="32" t="s">
-        <v>289</v>
-      </c>
-      <c r="H6" s="32" t="s">
-        <v>183</v>
-      </c>
       <c r="I6" s="32" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="J6" s="32">
         <v>0</v>
@@ -5103,61 +5106,61 @@
         <v>0</v>
       </c>
       <c r="X6" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="Y6" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="Z6" s="28" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA6" s="28" t="s">
+        <v>190</v>
+      </c>
+      <c r="AB6" s="28" t="s">
+        <v>189</v>
+      </c>
+      <c r="AC6" s="28" t="s">
         <v>186</v>
       </c>
-      <c r="Y6" s="28" t="s">
+      <c r="AD6" s="28" t="s">
         <v>187</v>
       </c>
-      <c r="Z6" s="28" t="s">
+      <c r="AE6" s="28" t="s">
+        <v>194</v>
+      </c>
+      <c r="AF6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ6" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="AA6" s="28" t="s">
+      <c r="AK6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL6" s="28" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM6" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AN6" s="28" t="s">
+        <v>192</v>
+      </c>
+      <c r="AO6" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="AB6" s="28" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC6" s="28" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD6" s="28" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE6" s="28" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="28">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ6" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="AK6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL6" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM6" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN6" s="28" t="s">
-        <v>195</v>
-      </c>
-      <c r="AO6" s="28" t="s">
+      <c r="AP6" s="28" t="s">
         <v>196</v>
-      </c>
-      <c r="AP6" s="28" t="s">
-        <v>199</v>
       </c>
       <c r="AQ6" s="28">
         <v>0</v>
@@ -5176,23 +5179,23 @@
       </c>
       <c r="AV6" s="28"/>
       <c r="AW6" s="28" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AX6" s="28" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="AY6" s="28" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AZ6" s="28"/>
       <c r="BA6" s="28" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BB6" s="28" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="BC6" s="28" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -5229,139 +5232,139 @@
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -5376,15 +5379,15 @@
         <v>0</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C8" s="7">
         <v>3</v>
@@ -5396,47 +5399,47 @@
         <v>3</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E10" s="3">
         <v>0</v>
@@ -5450,19 +5453,19 @@
     </row>
     <row r="11" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F11" s="3">
         <v>0</v>
@@ -5473,22 +5476,22 @@
     </row>
     <row r="12" spans="1:7" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G12" s="4">
         <v>0</v>
@@ -5496,10 +5499,10 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C13" s="3">
         <v>0</v>
@@ -5515,10 +5518,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -5534,10 +5537,10 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C15" s="3">
         <v>0</v>
@@ -5553,10 +5556,10 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -5572,10 +5575,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -5591,10 +5594,10 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -5610,10 +5613,10 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -5623,10 +5626,10 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
@@ -5636,10 +5639,10 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
@@ -5649,10 +5652,10 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
@@ -5662,10 +5665,10 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
@@ -5675,125 +5678,125 @@
     </row>
     <row r="24" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C26" s="3">
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C27" s="3">
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C28" s="3">
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E28" s="3">
         <v>0</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C29" s="3">
         <v>0</v>
@@ -5805,18 +5808,18 @@
         <v>0</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C30" s="3">
         <v>0</v>
@@ -5828,18 +5831,18 @@
         <v>0</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C31" s="3">
         <v>0</v>
@@ -5851,18 +5854,18 @@
         <v>0</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C32" s="3">
         <v>0</v>
@@ -5874,7 +5877,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="G32" s="4">
         <v>0</v>
@@ -5882,10 +5885,10 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C33" s="3">
         <v>0</v>
@@ -5905,10 +5908,10 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C34" s="3">
         <v>0</v>
@@ -5928,125 +5931,125 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C37" s="3">
         <v>0</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C38" s="3">
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C39" s="3">
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E39" s="3">
         <v>0</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C40" s="3">
         <v>0</v>
@@ -6058,18 +6061,18 @@
         <v>0</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C41" s="3">
         <v>0</v>
@@ -6081,18 +6084,18 @@
         <v>0</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C42" s="3">
         <v>0</v>
@@ -6104,18 +6107,18 @@
         <v>0</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C43" s="3">
         <v>0</v>
@@ -6127,7 +6130,7 @@
         <v>0</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="G43" s="4">
         <v>0</v>
@@ -6135,10 +6138,10 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C44" s="3">
         <v>0</v>
@@ -6158,10 +6161,10 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="3">
         <v>0</v>
@@ -6181,10 +6184,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C46" s="3">
         <v>0</v>
@@ -6204,10 +6207,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C47" s="3">
         <v>0</v>
@@ -6227,10 +6230,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C48" s="3">
         <v>0</v>
@@ -6250,10 +6253,10 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C49" s="3">
         <v>0</v>
@@ -6268,15 +6271,15 @@
         <v>0</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C50" s="3">
         <v>0</v>
@@ -6296,10 +6299,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C51" s="3">
         <v>0</v>
@@ -6319,10 +6322,10 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C52" s="3">
         <v>0</v>
@@ -6342,10 +6345,10 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C53" s="3">
         <v>0</v>
@@ -6360,15 +6363,15 @@
         <v>0</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C54" s="3">
         <v>0</v>
@@ -6388,10 +6391,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C55" s="3">
         <v>0</v>
@@ -6411,10 +6414,10 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C56" s="3">
         <v>0</v>
@@ -6434,79 +6437,79 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="10" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D57" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="D57" s="11" t="s">
-        <v>60</v>
-      </c>
       <c r="E57" s="11" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E58" s="8" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4"/>
@@ -6516,25 +6519,25 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F61" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="D61" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E61" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="F61" s="4" t="s">
-        <v>84</v>
-      </c>
       <c r="G61" s="4" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -6548,15 +6551,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100BBBF163BA455D545BE77BC28C15A97F3" ma:contentTypeVersion="10" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="a6905f3f9aa9fa582700fb35c36deea3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="67187332-2de6-4d54-a903-ae3aea147a72" xmlns:ns3="a475495e-d957-4cf9-add2-7e1a4308a724" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2fa17e355bae4fa9766379b1b0899464" ns2:_="" ns3:_="">
     <xsd:import namespace="67187332-2de6-4d54-a903-ae3aea147a72"/>
@@ -6759,21 +6753,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6C94548-B5A7-4218-BB29-BA92A34EF11D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA47CFDB-4F2E-4A88-AFFF-4856835AD188}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6792,7 +6787,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4A94AA5B-6745-45A9-8FDF-DA550244BC08}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a475495e-d957-4cf9-add2-7e1a4308a724"/>
@@ -6807,4 +6802,12 @@
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C6C94548-B5A7-4218-BB29-BA92A34EF11D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>